--- a/Doc/PHD_Papers/Thesis_Paper/Stable Wireless Blockchain Consensus Protocol/测试数据/Sybil_test/最终测试数据2/500nodes/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Stable Wireless Blockchain Consensus Protocol/测试数据/Sybil_test/最终测试数据2/500nodes/500.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\测试数据\Sybil_test\第三次测试\500nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Stable Wireless Blockchain Consensus Protocol\测试数据\Sybil_test\最终测试数据2\500nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6179E72C-BBE5-4550-AF67-BACC5138EB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735F2AE-50E4-432B-B0E6-A72D690B769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,34 +315,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24485599999999999</c:v>
+                  <c:v>0.25256800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25444800000000001</c:v>
+                  <c:v>0.25300800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23785400000000001</c:v>
+                  <c:v>0.22973399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23433499999999999</c:v>
+                  <c:v>0.25678000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26000699999999999</c:v>
+                  <c:v>0.24174100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23463000000000001</c:v>
+                  <c:v>0.257969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26029600000000003</c:v>
+                  <c:v>0.25625599999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22573799999999999</c:v>
+                  <c:v>0.235177</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26684999999999998</c:v>
+                  <c:v>0.26657900000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25565700000000002</c:v>
+                  <c:v>0.262241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,34 +427,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.26209500000000002</c:v>
+                  <c:v>0.25785400000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26124399999999998</c:v>
+                  <c:v>0.25958399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26861000000000002</c:v>
+                  <c:v>0.26114700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26656000000000002</c:v>
+                  <c:v>0.268206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27647899999999997</c:v>
+                  <c:v>0.26828999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27219599999999999</c:v>
+                  <c:v>0.27721800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27520899999999998</c:v>
+                  <c:v>0.265179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28016200000000002</c:v>
+                  <c:v>0.440834</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28078999999999998</c:v>
+                  <c:v>0.27950599999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29850700000000002</c:v>
+                  <c:v>0.29128100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,34 +539,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14534</c:v>
+                  <c:v>0.24920500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.246694</c:v>
+                  <c:v>0.24859100000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4536999999999997E-2</c:v>
+                  <c:v>2.4580999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1098999999999997E-2</c:v>
+                  <c:v>0.247475</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25125599999999998</c:v>
+                  <c:v>9.4964000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6549E-2</c:v>
+                  <c:v>0.24903700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.253278</c:v>
+                  <c:v>0.25090699999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2037E-2</c:v>
+                  <c:v>3.0204000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25980700000000001</c:v>
+                  <c:v>0.25651499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6222000000000001E-2</c:v>
+                  <c:v>0.110073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,34 +904,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7522</c:v>
+                  <c:v>8104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8044</c:v>
+                  <c:v>8090</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7744</c:v>
+                  <c:v>8017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7860</c:v>
+                  <c:v>7971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7872</c:v>
+                  <c:v>7619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7850</c:v>
+                  <c:v>7935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7864</c:v>
+                  <c:v>7988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7251</c:v>
+                  <c:v>6089</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7670</c:v>
+                  <c:v>7678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7204</c:v>
+                  <c:v>7024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,34 +1016,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7027</c:v>
+                  <c:v>7938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7835</c:v>
+                  <c:v>7885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6857</c:v>
+                  <c:v>7053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6910</c:v>
+                  <c:v>7632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7403</c:v>
+                  <c:v>6865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6767</c:v>
+                  <c:v>7384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7437</c:v>
+                  <c:v>7719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5843</c:v>
+                  <c:v>3248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7290</c:v>
+                  <c:v>7323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6170</c:v>
+                  <c:v>6323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,34 +1128,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12673</c:v>
+                  <c:v>8214</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8297</c:v>
+                  <c:v>8234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28541</c:v>
+                  <c:v>74934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44818</c:v>
+                  <c:v>8271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8147</c:v>
+                  <c:v>19396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69382</c:v>
+                  <c:v>8219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8082</c:v>
+                  <c:v>8158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31458</c:v>
+                  <c:v>47411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7878</c:v>
+                  <c:v>7980</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32762</c:v>
+                  <c:v>16734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,34 +1493,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24485599999999999</c:v>
+                  <c:v>0.25256800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25444800000000001</c:v>
+                  <c:v>0.25300800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23785400000000001</c:v>
+                  <c:v>0.22973399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23433499999999999</c:v>
+                  <c:v>0.25678000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26000699999999999</c:v>
+                  <c:v>0.24174100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23463000000000001</c:v>
+                  <c:v>0.257969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26029600000000003</c:v>
+                  <c:v>0.25625599999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22573799999999999</c:v>
+                  <c:v>0.235177</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26684999999999998</c:v>
+                  <c:v>0.26657900000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25565700000000002</c:v>
+                  <c:v>0.262241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,34 +1582,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7522</c:v>
+                  <c:v>8104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8044</c:v>
+                  <c:v>8090</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7744</c:v>
+                  <c:v>8017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7860</c:v>
+                  <c:v>7971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7872</c:v>
+                  <c:v>7619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7850</c:v>
+                  <c:v>7935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7864</c:v>
+                  <c:v>7988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7251</c:v>
+                  <c:v>6089</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7670</c:v>
+                  <c:v>7678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7204</c:v>
+                  <c:v>7024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3935,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3961,15 +3961,15 @@
       <c r="J2">
         <v>2047</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <f>AVERAGE(J2:J11)</f>
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -3987,7 +3987,7 @@
         <v>17</v>
       </c>
       <c r="S2">
-        <v>0.28060825892855501</v>
+        <v>0.28344029017855898</v>
       </c>
       <c r="T2" t="s">
         <v>18</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="V2">
         <f>S2-H2</f>
-        <v>0.25502232142855391</v>
+        <v>0.25785435267855789</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -4005,7 +4005,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4023,7 +4023,7 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>0.280622209821413</v>
+        <v>0.28345424107141698</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -4033,13 +4033,13 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" si="0">AVERAGE(J3:J12)</f>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="N3" t="s">
         <v>13</v>
@@ -4057,7 +4057,7 @@
         <v>17</v>
       </c>
       <c r="S3">
-        <v>0.54003906250033795</v>
+        <v>0.53265904017889898</v>
       </c>
       <c r="T3" t="s">
         <v>18</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V66" si="1">S3-H3</f>
-        <v>0.25941685267892495</v>
+        <v>0.249204799107482</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -4075,13 +4075,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -4093,29 +4093,29 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>0.54017857142891001</v>
+        <v>0.53267299107175603</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="N4" t="s">
         <v>13</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
         <v>14</v>
@@ -4127,17 +4127,17 @@
         <v>17</v>
       </c>
       <c r="S4">
-        <v>0.68551897321482202</v>
+        <v>0.78561662946495903</v>
       </c>
       <c r="T4" t="s">
         <v>18</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>0.14534040178591201</v>
+        <v>0.252943638393203</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -4145,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -4163,7 +4163,7 @@
         <v>15</v>
       </c>
       <c r="H5">
-        <v>0.68553292410767896</v>
+        <v>0.78563058035781597</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -4179,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="M5">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
@@ -4197,7 +4197,7 @@
         <v>17</v>
       </c>
       <c r="S5">
-        <v>0.94762834821518005</v>
+        <v>1.0376674107153001</v>
       </c>
       <c r="T5" t="s">
         <v>18</v>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>0.26209542410750108</v>
+        <v>0.25203683035748414</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4233,7 +4233,7 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <v>0.94764229910803699</v>
+        <v>1.0376813616081599</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -4249,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="M6">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
@@ -4267,7 +4267,7 @@
         <v>17</v>
       </c>
       <c r="S6">
-        <v>1.1982282366083701</v>
+        <v>1.2868861607156401</v>
       </c>
       <c r="T6" t="s">
         <v>18</v>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>0.25058593750033309</v>
+        <v>0.24920479910748017</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -4285,7 +4285,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -4303,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="H7">
-        <v>1.1982421875012299</v>
+        <v>1.2869001116084999</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
@@ -4319,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="M7">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="N7" t="s">
         <v>13</v>
@@ -4337,7 +4337,7 @@
         <v>17</v>
       </c>
       <c r="S7">
-        <v>1.4584263392873</v>
+        <v>1.54139229910884</v>
       </c>
       <c r="T7" t="s">
         <v>18</v>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>0.26018415178607013</v>
+        <v>0.25449218750034008</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -4355,7 +4355,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -4373,7 +4373,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>1.4584402901801601</v>
+        <v>1.5414062500017001</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -4389,7 +4389,7 @@
         <v>12</v>
       </c>
       <c r="M8">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s">
         <v>13</v>
@@ -4407,7 +4407,7 @@
         <v>17</v>
       </c>
       <c r="S8">
-        <v>1.71992187500194</v>
+        <v>1.79462890625205</v>
       </c>
       <c r="T8" t="s">
         <v>18</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>0.26148158482177997</v>
+        <v>0.2532226562503499</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -4425,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>211</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -4443,7 +4443,7 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>1.7199358258948001</v>
+        <v>1.7946428571449</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
@@ -4459,7 +4459,7 @@
         <v>12</v>
       </c>
       <c r="M9">
-        <v>211</v>
+        <v>382</v>
       </c>
       <c r="N9" t="s">
         <v>13</v>
@@ -4477,7 +4477,7 @@
         <v>17</v>
       </c>
       <c r="S9">
-        <v>1.97193080357372</v>
+        <v>2.0453683035730901</v>
       </c>
       <c r="T9" t="s">
         <v>18</v>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>0.25199497767891987</v>
+        <v>0.25072544642819006</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -4513,7 +4513,7 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>1.97194475446657</v>
+        <v>2.0453822544659501</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
@@ -4529,7 +4529,7 @@
         <v>12</v>
       </c>
       <c r="M10">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
@@ -4547,7 +4547,7 @@
         <v>17</v>
       </c>
       <c r="S10">
-        <v>2.2238978794633502</v>
+        <v>2.3015206473193701</v>
       </c>
       <c r="T10" t="s">
         <v>18</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>0.25195312499678013</v>
+        <v>0.25613839285341999</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -4565,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -4583,7 +4583,7 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>2.2239118303562102</v>
+        <v>2.30153459821222</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -4599,7 +4599,7 @@
         <v>12</v>
       </c>
       <c r="M11">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
         <v>13</v>
@@ -4617,7 +4617,7 @@
         <v>17</v>
       </c>
       <c r="S11">
-        <v>2.4744001116025598</v>
+        <v>2.5513950892800201</v>
       </c>
       <c r="T11" t="s">
         <v>18</v>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>0.25048828124634959</v>
+        <v>0.24986049106780017</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -4669,7 +4669,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -4695,7 +4695,7 @@
       <c r="J13">
         <v>2047</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
         <v>2047</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="M13">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="N13" t="s">
         <v>13</v>
@@ -4721,7 +4721,7 @@
         <v>17</v>
       </c>
       <c r="S13">
-        <v>0.28683035714284999</v>
+        <v>0.27420479910711798</v>
       </c>
       <c r="T13" t="s">
         <v>18</v>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>0.26124441964284889</v>
+        <v>0.24861886160711688</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -4739,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>341</v>
+        <v>491</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -4757,7 +4757,7 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <v>0.28684430803570699</v>
+        <v>0.27421874999997498</v>
       </c>
       <c r="I14" t="s">
         <v>16</v>
@@ -4773,7 +4773,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>341</v>
+        <v>491</v>
       </c>
       <c r="N14" t="s">
         <v>13</v>
@@ -4791,7 +4791,7 @@
         <v>17</v>
       </c>
       <c r="S14">
-        <v>0.53353794642890096</v>
+        <v>0.52280970982174302</v>
       </c>
       <c r="T14" t="s">
         <v>18</v>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>0.24669363839319397</v>
+        <v>0.24859095982176804</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -4809,7 +4809,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>227</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -4827,7 +4827,7 @@
         <v>15</v>
       </c>
       <c r="H15">
-        <v>0.53355189732175801</v>
+        <v>0.52282366071459996</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -4843,7 +4843,7 @@
         <v>12</v>
       </c>
       <c r="M15">
-        <v>227</v>
+        <v>379</v>
       </c>
       <c r="N15" t="s">
         <v>13</v>
@@ -4861,7 +4861,7 @@
         <v>17</v>
       </c>
       <c r="S15">
-        <v>0.78995535714353604</v>
+        <v>0.77264229910779803</v>
       </c>
       <c r="T15" t="s">
         <v>18</v>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>0.25640345982177803</v>
+        <v>0.24981863839319807</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>391</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -4897,7 +4897,7 @@
         <v>15</v>
       </c>
       <c r="H16">
-        <v>0.78996930803639298</v>
+        <v>0.77265625000065496</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -4913,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="M16">
-        <v>391</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>13</v>
@@ -4931,7 +4931,7 @@
         <v>17</v>
       </c>
       <c r="S16">
-        <v>1.0487025669653101</v>
+        <v>1.03123604910815</v>
       </c>
       <c r="T16" t="s">
         <v>18</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>0.25873325892891708</v>
+        <v>0.25857979910749507</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -4949,7 +4949,7 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>366</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -4967,7 +4967,7 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>1.0487165178581701</v>
+        <v>1.0312500000010001</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -4977,13 +4977,13 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
       </c>
       <c r="M17">
-        <v>366</v>
+        <v>50</v>
       </c>
       <c r="N17" t="s">
         <v>13</v>
@@ -5001,7 +5001,7 @@
         <v>17</v>
       </c>
       <c r="S17">
-        <v>1.30126953125137</v>
+        <v>1.28391462053706</v>
       </c>
       <c r="T17" t="s">
         <v>18</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>0.25255301339319991</v>
+        <v>0.25266462053605987</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -5019,7 +5019,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>351</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -5037,7 +5037,7 @@
         <v>15</v>
       </c>
       <c r="H18">
-        <v>1.3012834821442301</v>
+        <v>1.28392857142992</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -5047,13 +5047,13 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
       </c>
       <c r="M18">
-        <v>351</v>
+        <v>219</v>
       </c>
       <c r="N18" t="s">
         <v>13</v>
@@ -5071,7 +5071,7 @@
         <v>17</v>
       </c>
       <c r="S18">
-        <v>1.5520926339302901</v>
+        <v>1.54351283482313</v>
       </c>
       <c r="T18" t="s">
         <v>18</v>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>0.25080915178606</v>
+        <v>0.25958426339320995</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -5089,7 +5089,7 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>374</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -5107,7 +5107,7 @@
         <v>15</v>
       </c>
       <c r="H19">
-        <v>1.5521065848231399</v>
+        <v>1.54352678571599</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
@@ -5117,13 +5117,13 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
       </c>
       <c r="M19">
-        <v>374</v>
+        <v>55</v>
       </c>
       <c r="N19" t="s">
         <v>13</v>
@@ -5141,7 +5141,7 @@
         <v>17</v>
       </c>
       <c r="S19">
-        <v>1.81180245535921</v>
+        <v>1.7966796875020501</v>
       </c>
       <c r="T19" t="s">
         <v>18</v>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
-        <v>0.25969587053607013</v>
+        <v>0.25315290178606009</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -5177,7 +5177,7 @@
         <v>15</v>
       </c>
       <c r="H20">
-        <v>1.8118164062520701</v>
+        <v>1.7966936383949099</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -5187,13 +5187,13 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
       </c>
       <c r="M20">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="N20" t="s">
         <v>13</v>
@@ -5211,7 +5211,7 @@
         <v>17</v>
       </c>
       <c r="S20">
-        <v>2.0629045758942701</v>
+        <v>2.0520228794658499</v>
       </c>
       <c r="T20" t="s">
         <v>18</v>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>0.25108816964220004</v>
+        <v>0.25532924107094002</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -5229,7 +5229,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -5247,7 +5247,7 @@
         <v>15</v>
       </c>
       <c r="H21">
-        <v>2.06291852678712</v>
+        <v>2.05203683035871</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -5257,13 +5257,13 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
       </c>
       <c r="M21">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
         <v>13</v>
@@ -5281,7 +5281,7 @@
         <v>17</v>
       </c>
       <c r="S21">
-        <v>2.3205636160690899</v>
+        <v>2.3031529017836299</v>
       </c>
       <c r="T21" t="s">
         <v>18</v>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>0.25764508928196994</v>
+        <v>0.25111607142491987</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -5299,7 +5299,7 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -5317,7 +5317,7 @@
         <v>15</v>
       </c>
       <c r="H22">
-        <v>2.3205775669619499</v>
+        <v>2.3031668526764899</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
@@ -5333,7 +5333,7 @@
         <v>12</v>
       </c>
       <c r="M22">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
@@ -5351,7 +5351,7 @@
         <v>17</v>
       </c>
       <c r="S22">
-        <v>2.5701869419583101</v>
+        <v>2.55578962052995</v>
       </c>
       <c r="T22" t="s">
         <v>18</v>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="1"/>
-        <v>0.24960937499636016</v>
+        <v>0.25262276785346005</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -5403,7 +5403,7 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -5429,7 +5429,7 @@
       <c r="J24">
         <v>2047</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <f t="shared" si="0"/>
         <v>1842.3</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>12</v>
       </c>
       <c r="M24">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="N24" t="s">
         <v>13</v>
@@ -5455,7 +5455,7 @@
         <v>17</v>
       </c>
       <c r="S24">
-        <v>0.280147879464269</v>
+        <v>0.28005022321426898</v>
       </c>
       <c r="T24" t="s">
         <v>18</v>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="1"/>
-        <v>0.2545619419642679</v>
+        <v>0.25446428571426788</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -5473,7 +5473,7 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -5491,7 +5491,7 @@
         <v>15</v>
       </c>
       <c r="H25">
-        <v>0.280161830357126</v>
+        <v>0.28006417410712597</v>
       </c>
       <c r="I25" t="s">
         <v>16</v>
@@ -5507,7 +5507,7 @@
         <v>12</v>
       </c>
       <c r="M25">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="N25" t="s">
         <v>13</v>
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="S25">
-        <v>0.54002511160748101</v>
+        <v>0.53122209821461197</v>
       </c>
       <c r="T25" t="s">
         <v>18</v>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
-        <v>0.25986328125035502</v>
+        <v>0.251157924107486</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -5543,13 +5543,13 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -5561,13 +5561,13 @@
         <v>15</v>
       </c>
       <c r="H26">
-        <v>0.54016462053605196</v>
+        <v>0.53123604910746902</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
@@ -5577,13 +5577,13 @@
         <v>12</v>
       </c>
       <c r="M26">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="N26" t="s">
         <v>13</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="s">
         <v>14</v>
@@ -5595,17 +5595,17 @@
         <v>17</v>
       </c>
       <c r="S26">
-        <v>0.60470145089328298</v>
+        <v>0.77960379464352203</v>
       </c>
       <c r="T26" t="s">
         <v>18</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>6.4536830357231012E-2</v>
+        <v>0.24836774553605301</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -5613,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>386</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -5631,7 +5631,7 @@
         <v>15</v>
       </c>
       <c r="H27">
-        <v>0.60471540178614003</v>
+        <v>0.77961774553637897</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
@@ -5641,13 +5641,13 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
       </c>
       <c r="M27">
-        <v>386</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s">
         <v>13</v>
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="S27">
-        <v>0.85721261160791395</v>
+        <v>1.02848772321529</v>
       </c>
       <c r="T27" t="s">
         <v>18</v>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>0.25249720982177393</v>
+        <v>0.24886997767891106</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -5683,7 +5683,7 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>48</v>
+        <v>307</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -5701,7 +5701,7 @@
         <v>15</v>
       </c>
       <c r="H28">
-        <v>0.85722656250077101</v>
+        <v>1.0285016741081401</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
@@ -5717,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>307</v>
       </c>
       <c r="N28" t="s">
         <v>13</v>
@@ -5735,7 +5735,7 @@
         <v>17</v>
       </c>
       <c r="S28">
-        <v>1.10754743303682</v>
+        <v>1.2826171875013499</v>
       </c>
       <c r="T28" t="s">
         <v>18</v>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="V28">
         <f t="shared" si="1"/>
-        <v>0.25032087053604901</v>
+        <v>0.25411551339320981</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -5771,7 +5771,7 @@
         <v>15</v>
       </c>
       <c r="H29">
-        <v>1.1075613839296801</v>
+        <v>1.2826311383942</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
@@ -5787,7 +5787,7 @@
         <v>12</v>
       </c>
       <c r="M29">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="N29" t="s">
         <v>13</v>
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="S29">
-        <v>1.35888671875145</v>
+        <v>1.5339564732159801</v>
       </c>
       <c r="T29" t="s">
         <v>18</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>0.25132533482176989</v>
+        <v>0.2513253348217801</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>471</v>
+        <v>274</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -5841,7 +5841,7 @@
         <v>15</v>
       </c>
       <c r="H30">
-        <v>1.35890066964431</v>
+        <v>1.5339704241088301</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -5857,7 +5857,7 @@
         <v>12</v>
       </c>
       <c r="M30">
-        <v>471</v>
+        <v>274</v>
       </c>
       <c r="N30" t="s">
         <v>13</v>
@@ -5875,7 +5875,7 @@
         <v>17</v>
       </c>
       <c r="S30">
-        <v>1.61741071428752</v>
+        <v>1.79511718750205</v>
       </c>
       <c r="T30" t="s">
         <v>18</v>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="1"/>
-        <v>0.25851004464321004</v>
+        <v>0.26114676339321985</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -5893,13 +5893,13 @@
         <v>12</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -5911,13 +5911,13 @@
         <v>15</v>
       </c>
       <c r="H31">
-        <v>1.6174246651803701</v>
+        <v>1.79525669643062</v>
       </c>
       <c r="I31" t="s">
         <v>16</v>
       </c>
       <c r="J31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
@@ -5927,13 +5927,13 @@
         <v>12</v>
       </c>
       <c r="M31">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="N31" t="s">
         <v>13</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="s">
         <v>14</v>
@@ -5945,17 +5945,17 @@
         <v>17</v>
       </c>
       <c r="S31">
-        <v>1.8767857142878701</v>
+        <v>1.8198381696449399</v>
       </c>
       <c r="T31" t="s">
         <v>18</v>
       </c>
       <c r="U31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>0.25936104910750002</v>
+        <v>2.4581473214319915E-2</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -5963,7 +5963,7 @@
         <v>12</v>
       </c>
       <c r="B32">
-        <v>191</v>
+        <v>491</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -5981,7 +5981,7 @@
         <v>15</v>
       </c>
       <c r="H32">
-        <v>1.8767996651807299</v>
+        <v>1.81985212053779</v>
       </c>
       <c r="I32" t="s">
         <v>16</v>
@@ -5991,13 +5991,13 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
       </c>
       <c r="M32">
-        <v>191</v>
+        <v>491</v>
       </c>
       <c r="N32" t="s">
         <v>13</v>
@@ -6015,7 +6015,7 @@
         <v>17</v>
       </c>
       <c r="S32">
-        <v>2.1454101562502101</v>
+        <v>2.0717912946441399</v>
       </c>
       <c r="T32" t="s">
         <v>18</v>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>0.26861049106948021</v>
+        <v>0.25193917410634992</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
@@ -6033,7 +6033,7 @@
         <v>12</v>
       </c>
       <c r="B33">
-        <v>210</v>
+        <v>321</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -6051,7 +6051,7 @@
         <v>15</v>
       </c>
       <c r="H33">
-        <v>2.1454241071430702</v>
+        <v>2.0718052455369902</v>
       </c>
       <c r="I33" t="s">
         <v>16</v>
@@ -6061,13 +6061,13 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
       </c>
       <c r="M33">
-        <v>210</v>
+        <v>321</v>
       </c>
       <c r="N33" t="s">
         <v>13</v>
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="S33">
-        <v>2.40438058035358</v>
+        <v>2.3231724330333399</v>
       </c>
       <c r="T33" t="s">
         <v>18</v>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>0.25895647321050985</v>
+        <v>0.25136718749634968</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L34" t="s">
         <v>10</v>
@@ -6137,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -6163,15 +6163,15 @@
       <c r="J35">
         <v>2047</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <f t="shared" si="0"/>
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="L35" t="s">
         <v>12</v>
       </c>
       <c r="M35">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="N35" t="s">
         <v>13</v>
@@ -6189,7 +6189,7 @@
         <v>17</v>
       </c>
       <c r="S35">
-        <v>0.28158482142855701</v>
+        <v>0.27855747767855299</v>
       </c>
       <c r="T35" t="s">
         <v>18</v>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
-        <v>0.25599888392855591</v>
+        <v>0.25297154017855189</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="B36">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -6225,7 +6225,7 @@
         <v>15</v>
       </c>
       <c r="H36">
-        <v>0.281598772321414</v>
+        <v>0.27857142857140998</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -6235,13 +6235,13 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
       </c>
       <c r="M36">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="N36" t="s">
         <v>13</v>
@@ -6259,7 +6259,7 @@
         <v>17</v>
       </c>
       <c r="S36">
-        <v>0.54815848214320595</v>
+        <v>0.52917131696460895</v>
       </c>
       <c r="T36" t="s">
         <v>18</v>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="1"/>
-        <v>0.26655970982179195</v>
+        <v>0.25059988839319897</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -6277,13 +6277,13 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -6295,29 +6295,29 @@
         <v>15</v>
       </c>
       <c r="H37">
-        <v>0.54829799107177801</v>
+        <v>0.529185267857466</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L37" t="s">
         <v>12</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N37" t="s">
         <v>13</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="s">
         <v>14</v>
@@ -6329,17 +6329,17 @@
         <v>17</v>
       </c>
       <c r="S37">
-        <v>0.58939732142897705</v>
+        <v>0.77666015625066098</v>
       </c>
       <c r="T37" t="s">
         <v>18</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V37">
         <f t="shared" si="1"/>
-        <v>4.1099330357199038E-2</v>
+        <v>0.24747488839319498</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -6347,7 +6347,7 @@
         <v>12</v>
       </c>
       <c r="B38">
-        <v>196</v>
+        <v>487</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -6365,7 +6365,7 @@
         <v>15</v>
       </c>
       <c r="H38">
-        <v>0.58941127232183399</v>
+        <v>0.77667410714351803</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
@@ -6381,7 +6381,7 @@
         <v>12</v>
       </c>
       <c r="M38">
-        <v>196</v>
+        <v>487</v>
       </c>
       <c r="N38" t="s">
         <v>13</v>
@@ -6399,7 +6399,7 @@
         <v>17</v>
       </c>
       <c r="S38">
-        <v>0.83554687500074099</v>
+        <v>1.0404296875010199</v>
       </c>
       <c r="T38" t="s">
         <v>18</v>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>0.246135602678907</v>
+        <v>0.26375558035750191</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
@@ -6417,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -6435,7 +6435,7 @@
         <v>15</v>
       </c>
       <c r="H39">
-        <v>0.83556082589359804</v>
+        <v>1.04044363839387</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
@@ -6451,7 +6451,7 @@
         <v>12</v>
       </c>
       <c r="M39">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="N39" t="s">
         <v>13</v>
@@ -6469,7 +6469,7 @@
         <v>17</v>
       </c>
       <c r="S39">
-        <v>1.09116908482251</v>
+        <v>1.29857700892994</v>
       </c>
       <c r="T39" t="s">
         <v>18</v>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="1"/>
-        <v>0.25560825892891192</v>
+        <v>0.25813337053606999</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -6487,7 +6487,7 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -6505,7 +6505,7 @@
         <v>15</v>
       </c>
       <c r="H40">
-        <v>1.09118303571537</v>
+        <v>1.2985909598228</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
@@ -6521,7 +6521,7 @@
         <v>12</v>
       </c>
       <c r="M40">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="N40" t="s">
         <v>13</v>
@@ -6539,7 +6539,7 @@
         <v>17</v>
       </c>
       <c r="S40">
-        <v>1.34143415178714</v>
+        <v>1.5657645089303001</v>
       </c>
       <c r="T40" t="s">
         <v>18</v>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="1"/>
-        <v>0.25025111607176997</v>
+        <v>0.26717354910750002</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
@@ -6557,7 +6557,7 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -6575,7 +6575,7 @@
         <v>15</v>
       </c>
       <c r="H41">
-        <v>1.34144810268</v>
+        <v>1.5657784598231601</v>
       </c>
       <c r="I41" t="s">
         <v>16</v>
@@ -6591,7 +6591,7 @@
         <v>12</v>
       </c>
       <c r="M41">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="N41" t="s">
         <v>13</v>
@@ -6609,7 +6609,7 @@
         <v>17</v>
       </c>
       <c r="S41">
-        <v>1.59571707589463</v>
+        <v>1.8173270089306499</v>
       </c>
       <c r="T41" t="s">
         <v>18</v>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>0.25426897321462993</v>
+        <v>0.25154854910748981</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
@@ -6627,7 +6627,7 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -6645,7 +6645,7 @@
         <v>15</v>
       </c>
       <c r="H42">
-        <v>1.59573102678749</v>
+        <v>1.8173409598235</v>
       </c>
       <c r="I42" t="s">
         <v>16</v>
@@ -6661,7 +6661,7 @@
         <v>12</v>
       </c>
       <c r="M42">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="N42" t="s">
         <v>13</v>
@@ -6679,7 +6679,7 @@
         <v>17</v>
       </c>
       <c r="S42">
-        <v>1.8569893973235601</v>
+        <v>2.0855468750010799</v>
       </c>
       <c r="T42" t="s">
         <v>18</v>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>0.26125837053607004</v>
+        <v>0.26820591517757997</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
@@ -6697,7 +6697,7 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>140</v>
+        <v>426</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -6715,7 +6715,7 @@
         <v>15</v>
       </c>
       <c r="H43">
-        <v>1.8570033482164201</v>
+        <v>2.08556082589394</v>
       </c>
       <c r="I43" t="s">
         <v>16</v>
@@ -6731,7 +6731,7 @@
         <v>12</v>
       </c>
       <c r="M43">
-        <v>140</v>
+        <v>426</v>
       </c>
       <c r="N43" t="s">
         <v>13</v>
@@ -6749,7 +6749,7 @@
         <v>17</v>
       </c>
       <c r="S43">
-        <v>2.1130301339292501</v>
+        <v>2.3409458705330799</v>
       </c>
       <c r="T43" t="s">
         <v>18</v>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="1"/>
-        <v>0.25602678571283</v>
+        <v>0.25538504463913991</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
@@ -6767,7 +6767,7 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -6785,7 +6785,7 @@
         <v>15</v>
       </c>
       <c r="H44">
-        <v>2.1130440848221101</v>
+        <v>2.3409598214259399</v>
       </c>
       <c r="I44" t="s">
         <v>16</v>
@@ -6795,13 +6795,13 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L44" t="s">
         <v>12</v>
       </c>
       <c r="M44">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="N44" t="s">
         <v>13</v>
@@ -6819,7 +6819,7 @@
         <v>17</v>
       </c>
       <c r="S44">
-        <v>2.3691824776755199</v>
+        <v>2.5935128348151202</v>
       </c>
       <c r="T44" t="s">
         <v>18</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="1"/>
-        <v>0.25613839285340978</v>
+        <v>0.25255301338918024</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L45" t="s">
         <v>10</v>
@@ -6871,7 +6871,7 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>155</v>
+        <v>419</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -6897,15 +6897,15 @@
       <c r="J46">
         <v>2047</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
       </c>
       <c r="M46">
-        <v>155</v>
+        <v>419</v>
       </c>
       <c r="N46" t="s">
         <v>13</v>
@@ -6923,7 +6923,7 @@
         <v>17</v>
       </c>
       <c r="S46">
-        <v>0.28579799107142001</v>
+        <v>0.28660714285713501</v>
       </c>
       <c r="T46" t="s">
         <v>18</v>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>0.26021205357141891</v>
+        <v>0.26102120535713391</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
@@ -6941,7 +6941,7 @@
         <v>12</v>
       </c>
       <c r="B47">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -6959,7 +6959,7 @@
         <v>15</v>
       </c>
       <c r="H47">
-        <v>0.28581194196427701</v>
+        <v>0.28662109374999201</v>
       </c>
       <c r="I47" t="s">
         <v>16</v>
@@ -6969,13 +6969,13 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L47" t="s">
         <v>12</v>
       </c>
       <c r="M47">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N47" t="s">
         <v>13</v>
@@ -6993,7 +6993,7 @@
         <v>17</v>
       </c>
       <c r="S47">
-        <v>0.54400111607177204</v>
+        <v>0.54804687500034899</v>
       </c>
       <c r="T47" t="s">
         <v>18</v>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="1"/>
-        <v>0.25818917410749503</v>
+        <v>0.26142578125035698</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
@@ -7011,7 +7011,7 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -7029,7 +7029,7 @@
         <v>15</v>
       </c>
       <c r="H48">
-        <v>0.54401506696462898</v>
+        <v>0.54806082589320604</v>
       </c>
       <c r="I48" t="s">
         <v>16</v>
@@ -7039,13 +7039,13 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L48" t="s">
         <v>12</v>
       </c>
       <c r="M48">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="N48" t="s">
         <v>13</v>
@@ -7063,7 +7063,7 @@
         <v>17</v>
       </c>
       <c r="S48">
-        <v>0.80237165178641001</v>
+        <v>0.79832589285783295</v>
       </c>
       <c r="T48" t="s">
         <v>18</v>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="1"/>
-        <v>0.25835658482178103</v>
+        <v>0.25026506696462691</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
@@ -7081,7 +7081,7 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>473</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -7099,7 +7099,7 @@
         <v>15</v>
       </c>
       <c r="H49">
-        <v>0.80238560267926695</v>
+        <v>0.79833984375069</v>
       </c>
       <c r="I49" t="s">
         <v>16</v>
@@ -7109,13 +7109,13 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L49" t="s">
         <v>12</v>
       </c>
       <c r="M49">
-        <v>473</v>
+        <v>283</v>
       </c>
       <c r="N49" t="s">
         <v>13</v>
@@ -7133,7 +7133,7 @@
         <v>17</v>
       </c>
       <c r="S49">
-        <v>1.05364118303675</v>
+        <v>1.05405970982246</v>
       </c>
       <c r="T49" t="s">
         <v>18</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="1"/>
-        <v>0.25125558035748308</v>
+        <v>0.25571986607177</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -7151,7 +7151,7 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -7169,7 +7169,7 @@
         <v>15</v>
       </c>
       <c r="H50">
-        <v>1.0536551339296101</v>
+        <v>1.05407366071532</v>
       </c>
       <c r="I50" t="s">
         <v>16</v>
@@ -7179,13 +7179,13 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L50" t="s">
         <v>12</v>
       </c>
       <c r="M50">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="N50" t="s">
         <v>13</v>
@@ -7203,7 +7203,7 @@
         <v>17</v>
       </c>
       <c r="S50">
-        <v>1.31580636160853</v>
+        <v>1.3053292410728099</v>
       </c>
       <c r="T50" t="s">
         <v>18</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="V50">
         <f t="shared" si="1"/>
-        <v>0.26215122767891996</v>
+        <v>0.25125558035748985</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
@@ -7221,7 +7221,7 @@
         <v>12</v>
       </c>
       <c r="B51">
-        <v>397</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -7239,7 +7239,7 @@
         <v>15</v>
       </c>
       <c r="H51">
-        <v>1.3158203125013901</v>
+        <v>1.30534319196566</v>
       </c>
       <c r="I51" t="s">
         <v>16</v>
@@ -7249,13 +7249,13 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L51" t="s">
         <v>12</v>
       </c>
       <c r="M51">
-        <v>397</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
         <v>13</v>
@@ -7273,7 +7273,7 @@
         <v>17</v>
       </c>
       <c r="S51">
-        <v>1.59229910714463</v>
+        <v>1.56782924107316</v>
       </c>
       <c r="T51" t="s">
         <v>18</v>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="1"/>
-        <v>0.27647879464323988</v>
+        <v>0.26248604910750006</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -7291,7 +7291,7 @@
         <v>12</v>
       </c>
       <c r="B52">
-        <v>470</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -7309,7 +7309,7 @@
         <v>15</v>
       </c>
       <c r="H52">
-        <v>1.59231305803748</v>
+        <v>1.5678431919660201</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -7319,13 +7319,13 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L52" t="s">
         <v>12</v>
       </c>
       <c r="M52">
-        <v>470</v>
+        <v>173</v>
       </c>
       <c r="N52" t="s">
         <v>13</v>
@@ -7343,7 +7343,7 @@
         <v>17</v>
       </c>
       <c r="S52">
-        <v>1.8518275669664099</v>
+        <v>1.8361328125020999</v>
       </c>
       <c r="T52" t="s">
         <v>18</v>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="1"/>
-        <v>0.25951450892892991</v>
+        <v>0.26828962053607985</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
@@ -7361,13 +7361,13 @@
         <v>12</v>
       </c>
       <c r="B53">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -7379,29 +7379,29 @@
         <v>15</v>
       </c>
       <c r="H53">
-        <v>1.85184151785927</v>
+        <v>1.83627232143067</v>
       </c>
       <c r="I53" t="s">
         <v>16</v>
       </c>
       <c r="J53">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L53" t="s">
         <v>12</v>
       </c>
       <c r="M53">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="N53" t="s">
         <v>13</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="s">
         <v>14</v>
@@ -7413,17 +7413,17 @@
         <v>17</v>
       </c>
       <c r="S53">
-        <v>2.1104073660721498</v>
+        <v>1.9312360491093701</v>
       </c>
       <c r="T53" t="s">
         <v>18</v>
       </c>
       <c r="U53">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V53">
         <f t="shared" si="1"/>
-        <v>0.25856584821287987</v>
+        <v>9.4963727678700094E-2</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
         <v>12</v>
       </c>
       <c r="B54">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -7449,7 +7449,7 @@
         <v>15</v>
       </c>
       <c r="H54">
-        <v>2.1104213169650001</v>
+        <v>1.9312500000022299</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -7465,7 +7465,7 @@
         <v>12</v>
       </c>
       <c r="M54">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="N54" t="s">
         <v>13</v>
@@ -7483,7 +7483,7 @@
         <v>17</v>
       </c>
       <c r="S54">
-        <v>2.3664341517827099</v>
+        <v>2.1863420758924699</v>
       </c>
       <c r="T54" t="s">
         <v>18</v>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="1"/>
-        <v>0.25601283481770976</v>
+        <v>0.25509207589023997</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
@@ -7501,7 +7501,7 @@
         <v>12</v>
       </c>
       <c r="B55">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -7519,7 +7519,7 @@
         <v>15</v>
       </c>
       <c r="H55">
-        <v>2.3664481026755602</v>
+        <v>2.1863560267853299</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
@@ -7529,13 +7529,13 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L55" t="s">
         <v>12</v>
       </c>
       <c r="M55">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="N55" t="s">
         <v>13</v>
@@ -7553,7 +7553,7 @@
         <v>17</v>
       </c>
       <c r="S55">
-        <v>2.6257812499932198</v>
+        <v>2.4432477678530198</v>
       </c>
       <c r="T55" t="s">
         <v>18</v>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="1"/>
-        <v>0.25933314731765966</v>
+        <v>0.25689174106768986</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L56" t="s">
         <v>10</v>
@@ -7605,7 +7605,7 @@
         <v>12</v>
       </c>
       <c r="B57">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -7631,15 +7631,15 @@
       <c r="J57">
         <v>2047</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <f t="shared" si="0"/>
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="L57" t="s">
         <v>12</v>
       </c>
       <c r="M57">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="N57" t="s">
         <v>13</v>
@@ -7657,7 +7657,7 @@
         <v>17</v>
       </c>
       <c r="S57">
-        <v>0.27420479910711798</v>
+        <v>0.27705078124997901</v>
       </c>
       <c r="T57" t="s">
         <v>18</v>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="V57">
         <f t="shared" si="1"/>
-        <v>0.24861886160711688</v>
+        <v>0.25146484374997791</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -7675,7 +7675,7 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -7693,7 +7693,7 @@
         <v>15</v>
       </c>
       <c r="H58">
-        <v>0.27421874999997498</v>
+        <v>0.277064732142836</v>
       </c>
       <c r="I58" t="s">
         <v>16</v>
@@ -7703,13 +7703,13 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L58" t="s">
         <v>12</v>
       </c>
       <c r="M58">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="N58" t="s">
         <v>13</v>
@@ -7727,7 +7727,7 @@
         <v>17</v>
       </c>
       <c r="S58">
-        <v>0.52799944196460702</v>
+        <v>0.526102120536033</v>
       </c>
       <c r="T58" t="s">
         <v>18</v>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="1"/>
-        <v>0.25378069196463204</v>
+        <v>0.249037388393197</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -7745,7 +7745,7 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -7763,7 +7763,7 @@
         <v>15</v>
       </c>
       <c r="H59">
-        <v>0.52801339285746396</v>
+        <v>0.52611607142889005</v>
       </c>
       <c r="I59" t="s">
         <v>16</v>
@@ -7773,13 +7773,13 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L59" t="s">
         <v>12</v>
       </c>
       <c r="M59">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="N59" t="s">
         <v>13</v>
@@ -7797,7 +7797,7 @@
         <v>17</v>
       </c>
       <c r="S59">
-        <v>0.78876953125067695</v>
+        <v>0.78419363839352796</v>
       </c>
       <c r="T59" t="s">
         <v>18</v>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="1"/>
-        <v>0.26075613839321299</v>
+        <v>0.25807756696463791</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
@@ -7815,7 +7815,7 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -7833,7 +7833,7 @@
         <v>15</v>
       </c>
       <c r="H60">
-        <v>0.788783482143534</v>
+        <v>0.78420758928638501</v>
       </c>
       <c r="I60" t="s">
         <v>16</v>
@@ -7843,13 +7843,13 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L60" t="s">
         <v>12</v>
       </c>
       <c r="M60">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="N60" t="s">
         <v>13</v>
@@ -7867,7 +7867,7 @@
         <v>17</v>
       </c>
       <c r="S60">
-        <v>1.0445033482153101</v>
+        <v>1.0614257812510399</v>
       </c>
       <c r="T60" t="s">
         <v>18</v>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="V60">
         <f t="shared" si="1"/>
-        <v>0.2557198660717761</v>
+        <v>0.27721819196465491</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
@@ -7885,7 +7885,7 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -7903,7 +7903,7 @@
         <v>15</v>
       </c>
       <c r="H61">
-        <v>1.0445172991081599</v>
+        <v>1.0614397321439</v>
       </c>
       <c r="I61" t="s">
         <v>16</v>
@@ -7913,13 +7913,13 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L61" t="s">
         <v>12</v>
       </c>
       <c r="M61">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="N61" t="s">
         <v>13</v>
@@ -7937,7 +7937,7 @@
         <v>17</v>
       </c>
       <c r="S61">
-        <v>1.31671316964425</v>
+        <v>1.31861049107282</v>
       </c>
       <c r="T61" t="s">
         <v>18</v>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="1"/>
-        <v>0.27219587053609007</v>
+        <v>0.25717075892892005</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
@@ -7955,7 +7955,7 @@
         <v>12</v>
       </c>
       <c r="B62">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -7973,7 +7973,7 @@
         <v>15</v>
       </c>
       <c r="H62">
-        <v>1.3167271205371101</v>
+        <v>1.3186244419656801</v>
       </c>
       <c r="I62" t="s">
         <v>16</v>
@@ -7983,13 +7983,13 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L62" t="s">
         <v>12</v>
       </c>
       <c r="M62">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="N62" t="s">
         <v>13</v>
@@ -8007,7 +8007,7 @@
         <v>17</v>
       </c>
       <c r="S62">
-        <v>1.5706194196445999</v>
+        <v>1.5728515625017401</v>
       </c>
       <c r="T62" t="s">
         <v>18</v>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="1"/>
-        <v>0.25389229910748989</v>
+        <v>0.25422712053606</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
@@ -8025,7 +8025,7 @@
         <v>12</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>485</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -8043,7 +8043,7 @@
         <v>15</v>
       </c>
       <c r="H63">
-        <v>1.57063337053745</v>
+        <v>1.5728655133945999</v>
       </c>
       <c r="I63" t="s">
         <v>16</v>
@@ -8053,13 +8053,13 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L63" t="s">
         <v>12</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>485</v>
       </c>
       <c r="N63" t="s">
         <v>13</v>
@@ -8077,7 +8077,7 @@
         <v>17</v>
       </c>
       <c r="S63">
-        <v>1.8263113839306599</v>
+        <v>1.8302594866092401</v>
       </c>
       <c r="T63" t="s">
         <v>18</v>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="1"/>
-        <v>0.25567801339320995</v>
+        <v>0.25739397321464019</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
@@ -8095,13 +8095,13 @@
         <v>12</v>
       </c>
       <c r="B64">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -8113,29 +8113,29 @@
         <v>15</v>
       </c>
       <c r="H64">
-        <v>1.82645089285923</v>
+        <v>1.8302734375020899</v>
       </c>
       <c r="I64" t="s">
         <v>16</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L64" t="s">
         <v>12</v>
       </c>
       <c r="M64">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="N64" t="s">
         <v>13</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="s">
         <v>14</v>
@@ -8147,17 +8147,17 @@
         <v>17</v>
       </c>
       <c r="S64">
-        <v>1.85299944196641</v>
+        <v>2.0885184151796099</v>
       </c>
       <c r="T64" t="s">
         <v>18</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V64">
         <f t="shared" si="1"/>
-        <v>2.6548549107179964E-2</v>
+        <v>0.25824497767751997</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
@@ -8165,7 +8165,7 @@
         <v>12</v>
       </c>
       <c r="B65">
-        <v>287</v>
+        <v>462</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -8183,7 +8183,7 @@
         <v>15</v>
       </c>
       <c r="H65">
-        <v>1.85301339285927</v>
+        <v>2.0885323660724699</v>
       </c>
       <c r="I65" t="s">
         <v>16</v>
@@ -8199,7 +8199,7 @@
         <v>12</v>
       </c>
       <c r="M65">
-        <v>287</v>
+        <v>462</v>
       </c>
       <c r="N65" t="s">
         <v>13</v>
@@ -8217,7 +8217,7 @@
         <v>17</v>
       </c>
       <c r="S65">
-        <v>2.1151088169649399</v>
+        <v>2.34309430803305</v>
       </c>
       <c r="T65" t="s">
         <v>18</v>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="1"/>
-        <v>0.26209542410566988</v>
+        <v>0.25456194196058002</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -8235,7 +8235,7 @@
         <v>12</v>
       </c>
       <c r="B66">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -8253,7 +8253,7 @@
         <v>15</v>
       </c>
       <c r="H66">
-        <v>2.1151227678577902</v>
+        <v>2.3431082589258998</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
@@ -8269,7 +8269,7 @@
         <v>12</v>
       </c>
       <c r="M66">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="N66" t="s">
         <v>13</v>
@@ -8287,7 +8287,7 @@
         <v>17</v>
       </c>
       <c r="S66">
-        <v>2.3721400669612001</v>
+        <v>2.6053989955292298</v>
       </c>
       <c r="T66" t="s">
         <v>18</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="1"/>
-        <v>0.25701729910340987</v>
+        <v>0.26229073660333002</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
@@ -8339,7 +8339,7 @@
         <v>12</v>
       </c>
       <c r="B68">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -8365,7 +8365,7 @@
       <c r="J68">
         <v>2047</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <f t="shared" si="2"/>
         <v>2047</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>12</v>
       </c>
       <c r="M68">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="N68" t="s">
         <v>13</v>
@@ -8391,7 +8391,7 @@
         <v>17</v>
       </c>
       <c r="S68">
-        <v>0.288099888392851</v>
+        <v>0.27649274553569297</v>
       </c>
       <c r="T68" t="s">
         <v>18</v>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="V68">
         <f t="shared" si="3"/>
-        <v>0.2625139508928499</v>
+        <v>0.25090680803569188</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
@@ -8409,7 +8409,7 @@
         <v>12</v>
       </c>
       <c r="B69">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -8427,7 +8427,7 @@
         <v>15</v>
       </c>
       <c r="H69">
-        <v>0.28811383928570899</v>
+        <v>0.27650669642855003</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
@@ -8443,7 +8443,7 @@
         <v>12</v>
       </c>
       <c r="M69">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="N69" t="s">
         <v>13</v>
@@ -8461,7 +8461,7 @@
         <v>17</v>
       </c>
       <c r="S69">
-        <v>0.54139229910748299</v>
+        <v>0.52822265625032205</v>
       </c>
       <c r="T69" t="s">
         <v>18</v>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="3"/>
-        <v>0.25327845982177399</v>
+        <v>0.25171595982177203</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
@@ -8479,7 +8479,7 @@
         <v>12</v>
       </c>
       <c r="B70">
-        <v>432</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -8497,7 +8497,7 @@
         <v>15</v>
       </c>
       <c r="H70">
-        <v>0.54140625000034004</v>
+        <v>0.52823660714317899</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -8507,13 +8507,13 @@
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L70" t="s">
         <v>12</v>
       </c>
       <c r="M70">
-        <v>432</v>
+        <v>235</v>
       </c>
       <c r="N70" t="s">
         <v>13</v>
@@ -8531,7 +8531,7 @@
         <v>17</v>
       </c>
       <c r="S70">
-        <v>0.79859095982211903</v>
+        <v>0.78000837053637995</v>
       </c>
       <c r="T70" t="s">
         <v>18</v>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="3"/>
-        <v>0.25718470982177899</v>
+        <v>0.25177176339320095</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -8549,7 +8549,7 @@
         <v>12</v>
       </c>
       <c r="B71">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -8567,7 +8567,7 @@
         <v>15</v>
       </c>
       <c r="H71">
-        <v>0.79860491071497597</v>
+        <v>0.780022321429237</v>
       </c>
       <c r="I71" t="s">
         <v>16</v>
@@ -8577,13 +8577,13 @@
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L71" t="s">
         <v>12</v>
       </c>
       <c r="M71">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="N71" t="s">
         <v>13</v>
@@ -8601,7 +8601,7 @@
         <v>17</v>
       </c>
       <c r="S71">
-        <v>1.0738141741081999</v>
+        <v>1.0359654017867199</v>
       </c>
       <c r="T71" t="s">
         <v>18</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="V71">
         <f t="shared" si="3"/>
-        <v>0.27520926339322394</v>
+        <v>0.25594308035748292</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -8619,7 +8619,7 @@
         <v>12</v>
       </c>
       <c r="B72">
-        <v>439</v>
+        <v>285</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -8637,7 +8637,7 @@
         <v>15</v>
       </c>
       <c r="H72">
-        <v>1.07382812500106</v>
+        <v>1.03597935267958</v>
       </c>
       <c r="I72" t="s">
         <v>16</v>
@@ -8647,13 +8647,13 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L72" t="s">
         <v>12</v>
       </c>
       <c r="M72">
-        <v>439</v>
+        <v>285</v>
       </c>
       <c r="N72" t="s">
         <v>13</v>
@@ -8671,7 +8671,7 @@
         <v>17</v>
       </c>
       <c r="S72">
-        <v>1.3312220982156999</v>
+        <v>1.2968331473227901</v>
       </c>
       <c r="T72" t="s">
         <v>18</v>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="3"/>
-        <v>0.25739397321463997</v>
+        <v>0.26085379464321012</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -8689,7 +8689,7 @@
         <v>12</v>
       </c>
       <c r="B73">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -8707,7 +8707,7 @@
         <v>15</v>
       </c>
       <c r="H73">
-        <v>1.33123604910856</v>
+        <v>1.2968470982156499</v>
       </c>
       <c r="I73" t="s">
         <v>16</v>
@@ -8717,13 +8717,13 @@
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L73" t="s">
         <v>12</v>
       </c>
       <c r="M73">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="N73" t="s">
         <v>13</v>
@@ -8741,7 +8741,7 @@
         <v>17</v>
       </c>
       <c r="S73">
-        <v>1.5851283482160401</v>
+        <v>1.5526367187517101</v>
       </c>
       <c r="T73" t="s">
         <v>18</v>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="3"/>
-        <v>0.25389229910748012</v>
+        <v>0.25578962053606014</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -8759,7 +8759,7 @@
         <v>12</v>
       </c>
       <c r="B74">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -8777,7 +8777,7 @@
         <v>15</v>
       </c>
       <c r="H74">
-        <v>1.5851422991088999</v>
+        <v>1.5526506696445701</v>
       </c>
       <c r="I74" t="s">
         <v>16</v>
@@ -8787,13 +8787,13 @@
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L74" t="s">
         <v>12</v>
       </c>
       <c r="M74">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="N74" t="s">
         <v>13</v>
@@ -8811,7 +8811,7 @@
         <v>17</v>
       </c>
       <c r="S74">
-        <v>1.84019252232354</v>
+        <v>1.80966796875207</v>
       </c>
       <c r="T74" t="s">
         <v>18</v>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="3"/>
-        <v>0.2550502232146401</v>
+        <v>0.25701729910749993</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -8829,7 +8829,7 @@
         <v>12</v>
       </c>
       <c r="B75">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -8847,7 +8847,7 @@
         <v>15</v>
       </c>
       <c r="H75">
-        <v>1.8402064732163901</v>
+        <v>1.8096819196449201</v>
       </c>
       <c r="I75" t="s">
         <v>16</v>
@@ -8857,13 +8857,13 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>1819.5555555555557</v>
+        <v>1592.1111111111111</v>
       </c>
       <c r="L75" t="s">
         <v>12</v>
       </c>
       <c r="M75">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="N75" t="s">
         <v>13</v>
@@ -8881,7 +8881,7 @@
         <v>17</v>
       </c>
       <c r="S75">
-        <v>2.0995396205365902</v>
+        <v>2.0630301339299799</v>
       </c>
       <c r="T75" t="s">
         <v>18</v>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="V75">
         <f t="shared" si="3"/>
-        <v>0.25933314732020007</v>
+        <v>0.25334821428505983</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -8899,7 +8899,7 @@
         <v>12</v>
       </c>
       <c r="B76">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -8917,7 +8917,7 @@
         <v>15</v>
       </c>
       <c r="H76">
-        <v>2.0995535714294502</v>
+        <v>2.06304408482284</v>
       </c>
       <c r="I76" t="s">
         <v>16</v>
@@ -8927,13 +8927,13 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>1819.5555555555557</v>
+        <v>1592.1111111111111</v>
       </c>
       <c r="L76" t="s">
         <v>12</v>
       </c>
       <c r="M76">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="N76" t="s">
         <v>13</v>
@@ -8951,7 +8951,7 @@
         <v>17</v>
       </c>
       <c r="S76">
-        <v>2.3712611607112102</v>
+        <v>2.3282226562475499</v>
       </c>
       <c r="T76" t="s">
         <v>18</v>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="3"/>
-        <v>0.27170758928175998</v>
+        <v>0.26517857142470991</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
@@ -8969,7 +8969,7 @@
         <v>12</v>
       </c>
       <c r="B77">
-        <v>481</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -8987,7 +8987,7 @@
         <v>15</v>
       </c>
       <c r="H77">
-        <v>2.3712751116040698</v>
+        <v>2.3282366071404099</v>
       </c>
       <c r="I77" t="s">
         <v>16</v>
@@ -8997,13 +8997,13 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>1819.5555555555557</v>
+        <v>1364.6666666666667</v>
       </c>
       <c r="L77" t="s">
         <v>12</v>
       </c>
       <c r="M77">
-        <v>481</v>
+        <v>147</v>
       </c>
       <c r="N77" t="s">
         <v>13</v>
@@ -9021,7 +9021,7 @@
         <v>17</v>
       </c>
       <c r="S77">
-        <v>2.6286690848146099</v>
+        <v>2.5882672991009099</v>
       </c>
       <c r="T77" t="s">
         <v>18</v>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="3"/>
-        <v>0.25739397321054014</v>
+        <v>0.26003069196049999</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>1592.1111111111111</v>
+        <v>1364.6666666666667</v>
       </c>
       <c r="L78" t="s">
         <v>10</v>
@@ -9073,13 +9073,13 @@
         <v>12</v>
       </c>
       <c r="B79">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -9091,29 +9091,29 @@
         <v>15</v>
       </c>
       <c r="H79">
-        <v>2.5585937500001099E-2</v>
+        <v>1.25558035714285E-4</v>
       </c>
       <c r="I79" t="s">
         <v>16</v>
       </c>
       <c r="J79">
-        <v>2047</v>
-      </c>
-      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
         <f t="shared" si="2"/>
-        <v>1637.6</v>
+        <v>1432.9</v>
       </c>
       <c r="L79" t="s">
         <v>12</v>
       </c>
       <c r="M79">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="N79" t="s">
         <v>13</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="s">
         <v>14</v>
@@ -9125,17 +9125,17 @@
         <v>17</v>
       </c>
       <c r="S79">
-        <v>0.27978515624998301</v>
+        <v>3.0329241071430198E-2</v>
       </c>
       <c r="T79" t="s">
         <v>18</v>
       </c>
       <c r="U79">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V79">
         <f t="shared" si="3"/>
-        <v>0.25419921874998191</v>
+        <v>3.0203683035715915E-2</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
@@ -9143,7 +9143,7 @@
         <v>12</v>
       </c>
       <c r="B80">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -9161,7 +9161,7 @@
         <v>15</v>
       </c>
       <c r="H80">
-        <v>0.27979910714284001</v>
+        <v>4.9469866071427997E-2</v>
       </c>
       <c r="I80" t="s">
         <v>16</v>
@@ -9177,7 +9177,7 @@
         <v>12</v>
       </c>
       <c r="M80">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="N80" t="s">
         <v>13</v>
@@ -9195,7 +9195,7 @@
         <v>17</v>
       </c>
       <c r="S80">
-        <v>0.54708426339320504</v>
+        <v>0.30499441964287399</v>
       </c>
       <c r="T80" t="s">
         <v>18</v>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="3"/>
-        <v>0.26728515625036503</v>
+        <v>0.25552455357144599</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
@@ -9213,7 +9213,7 @@
         <v>12</v>
       </c>
       <c r="B81">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -9231,7 +9231,7 @@
         <v>15</v>
       </c>
       <c r="H81">
-        <v>0.54709821428606198</v>
+        <v>0.30500837053573199</v>
       </c>
       <c r="I81" t="s">
         <v>16</v>
@@ -9247,7 +9247,7 @@
         <v>12</v>
       </c>
       <c r="M81">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="N81" t="s">
         <v>13</v>
@@ -9265,7 +9265,7 @@
         <v>17</v>
       </c>
       <c r="S81">
-        <v>0.80171595982212396</v>
+        <v>0.57145647321466697</v>
       </c>
       <c r="T81" t="s">
         <v>18</v>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="V81">
         <f t="shared" si="3"/>
-        <v>0.25461774553606198</v>
+        <v>0.26644810267893498</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
@@ -9283,7 +9283,7 @@
         <v>12</v>
       </c>
       <c r="B82">
-        <v>277</v>
+        <v>459</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -9301,7 +9301,7 @@
         <v>15</v>
       </c>
       <c r="H82">
-        <v>0.80172991071498101</v>
+        <v>0.57147042410752402</v>
       </c>
       <c r="I82" t="s">
         <v>16</v>
@@ -9317,7 +9317,7 @@
         <v>12</v>
       </c>
       <c r="M82">
-        <v>277</v>
+        <v>459</v>
       </c>
       <c r="N82" t="s">
         <v>13</v>
@@ -9335,7 +9335,7 @@
         <v>17</v>
       </c>
       <c r="S82">
-        <v>1.06120256696533</v>
+        <v>0.83730468750074305</v>
       </c>
       <c r="T82" t="s">
         <v>18</v>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="3"/>
-        <v>0.25947265625034899</v>
+        <v>0.26583426339321903</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
@@ -9353,7 +9353,7 @@
         <v>12</v>
       </c>
       <c r="B83">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -9371,7 +9371,7 @@
         <v>15</v>
       </c>
       <c r="H83">
-        <v>1.06121651785819</v>
+        <v>0.83731863839360099</v>
       </c>
       <c r="I83" t="s">
         <v>16</v>
@@ -9387,7 +9387,7 @@
         <v>12</v>
       </c>
       <c r="M83">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="N83" t="s">
         <v>13</v>
@@ -9405,7 +9405,7 @@
         <v>17</v>
       </c>
       <c r="S83">
-        <v>1.31983816964425</v>
+        <v>1.10163225446539</v>
       </c>
       <c r="T83" t="s">
         <v>18</v>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="3"/>
-        <v>0.25862165178606</v>
+        <v>0.26431361607178905</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
@@ -9423,7 +9423,7 @@
         <v>12</v>
       </c>
       <c r="B84">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -9441,7 +9441,7 @@
         <v>15</v>
       </c>
       <c r="H84">
-        <v>1.3199776785728301</v>
+        <v>1.1017717633939601</v>
       </c>
       <c r="I84" t="s">
         <v>16</v>
@@ -9457,7 +9457,7 @@
         <v>12</v>
       </c>
       <c r="M84">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="N84" t="s">
         <v>13</v>
@@ -9475,7 +9475,7 @@
         <v>17</v>
       </c>
       <c r="S84">
-        <v>1.37201450893004</v>
+        <v>1.1438337053583001</v>
       </c>
       <c r="T84" t="s">
         <v>18</v>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="V84">
         <f t="shared" si="3"/>
-        <v>5.2036830357209851E-2</v>
+        <v>4.2061941964339988E-2</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
         <v>12</v>
       </c>
       <c r="B85">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -9511,7 +9511,7 @@
         <v>15</v>
       </c>
       <c r="H85">
-        <v>1.3720284598229</v>
+        <v>1.1438476562511599</v>
       </c>
       <c r="I85" t="s">
         <v>16</v>
@@ -9527,7 +9527,7 @@
         <v>12</v>
       </c>
       <c r="M85">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="N85" t="s">
         <v>13</v>
@@ -9545,7 +9545,7 @@
         <v>17</v>
       </c>
       <c r="S85">
-        <v>1.6303152901803899</v>
+        <v>1.39767020089436</v>
       </c>
       <c r="T85" t="s">
         <v>18</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="3"/>
-        <v>0.25828683035748989</v>
+        <v>0.25382254464320009</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
@@ -9563,13 +9563,13 @@
         <v>12</v>
       </c>
       <c r="B86">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -9581,13 +9581,13 @@
         <v>15</v>
       </c>
       <c r="H86">
-        <v>1.6303292410732499</v>
+        <v>1.3978097098229301</v>
       </c>
       <c r="I86" t="s">
         <v>16</v>
       </c>
       <c r="J86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
@@ -9597,13 +9597,13 @@
         <v>12</v>
       </c>
       <c r="M86">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="N86" t="s">
         <v>13</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="s">
         <v>14</v>
@@ -9615,17 +9615,17 @@
         <v>17</v>
       </c>
       <c r="S86">
-        <v>1.9104910714307699</v>
+        <v>1.8386439732163899</v>
       </c>
       <c r="T86" t="s">
         <v>18</v>
       </c>
       <c r="U86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V86">
         <f t="shared" si="3"/>
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
@@ -9633,13 +9633,13 @@
         <v>12</v>
       </c>
       <c r="B87">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -9651,29 +9651,29 @@
         <v>15</v>
       </c>
       <c r="H87">
-        <v>1.91063058035935</v>
+        <v>1.83865792410925</v>
       </c>
       <c r="I87" t="s">
         <v>16</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K87">
         <f t="shared" si="2"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L87" t="s">
         <v>12</v>
       </c>
       <c r="M87">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="N87" t="s">
         <v>13</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" t="s">
         <v>14</v>
@@ -9685,17 +9685,17 @@
         <v>17</v>
       </c>
       <c r="S87">
-        <v>2.01664341518065</v>
+        <v>2.1126813616078302</v>
       </c>
       <c r="T87" t="s">
         <v>18</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V87">
         <f t="shared" si="3"/>
-        <v>0.10601283482130008</v>
+        <v>0.27402343749858016</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
@@ -9703,7 +9703,7 @@
         <v>12</v>
       </c>
       <c r="B88">
-        <v>67</v>
+        <v>419</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -9721,7 +9721,7 @@
         <v>15</v>
       </c>
       <c r="H88">
-        <v>2.0166573660735101</v>
+        <v>2.1126953125006902</v>
       </c>
       <c r="I88" t="s">
         <v>16</v>
@@ -9737,7 +9737,7 @@
         <v>12</v>
       </c>
       <c r="M88">
-        <v>67</v>
+        <v>419</v>
       </c>
       <c r="N88" t="s">
         <v>13</v>
@@ -9755,7 +9755,7 @@
         <v>17</v>
       </c>
       <c r="S88">
-        <v>2.2833426339267699</v>
+        <v>2.37140066963978</v>
       </c>
       <c r="T88" t="s">
         <v>18</v>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="3"/>
-        <v>0.26668526785325986</v>
+        <v>0.25870535713908982</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
@@ -9807,7 +9807,7 @@
         <v>12</v>
       </c>
       <c r="B90">
-        <v>405</v>
+        <v>329</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -9841,7 +9841,7 @@
         <v>12</v>
       </c>
       <c r="M90">
-        <v>405</v>
+        <v>329</v>
       </c>
       <c r="N90" t="s">
         <v>13</v>
@@ -9859,7 +9859,7 @@
         <v>17</v>
       </c>
       <c r="S90">
-        <v>0.29578683035714798</v>
+        <v>0.290527343749998</v>
       </c>
       <c r="T90" t="s">
         <v>18</v>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="3"/>
-        <v>0.27020089285714688</v>
+        <v>0.2649414062499969</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
@@ -9877,7 +9877,7 @@
         <v>12</v>
       </c>
       <c r="B91">
-        <v>489</v>
+        <v>327</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -9895,7 +9895,7 @@
         <v>15</v>
       </c>
       <c r="H91">
-        <v>0.29580078125000497</v>
+        <v>0.290541294642855</v>
       </c>
       <c r="I91" t="s">
         <v>16</v>
@@ -9911,7 +9911,7 @@
         <v>12</v>
       </c>
       <c r="M91">
-        <v>489</v>
+        <v>327</v>
       </c>
       <c r="N91" t="s">
         <v>13</v>
@@ -9929,7 +9929,7 @@
         <v>17</v>
       </c>
       <c r="S91">
-        <v>0.55560825892893095</v>
+        <v>0.54984654017892298</v>
       </c>
       <c r="T91" t="s">
         <v>18</v>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="V91">
         <f t="shared" si="3"/>
-        <v>0.25980747767892598</v>
+        <v>0.25930524553606799</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
@@ -9947,7 +9947,7 @@
         <v>12</v>
       </c>
       <c r="B92">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -9965,7 +9965,7 @@
         <v>15</v>
       </c>
       <c r="H92">
-        <v>0.555622209821788</v>
+        <v>0.54986049107178003</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -9981,7 +9981,7 @@
         <v>12</v>
       </c>
       <c r="M92">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="N92" t="s">
         <v>13</v>
@@ -9999,7 +9999,7 @@
         <v>17</v>
       </c>
       <c r="S92">
-        <v>0.81844308035786095</v>
+        <v>0.80637555803641603</v>
       </c>
       <c r="T92" t="s">
         <v>18</v>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="3"/>
-        <v>0.26282087053607295</v>
+        <v>0.256515066964636</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
@@ -10017,7 +10017,7 @@
         <v>12</v>
       </c>
       <c r="B93">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -10035,7 +10035,7 @@
         <v>15</v>
       </c>
       <c r="H93">
-        <v>0.818457031250718</v>
+        <v>0.80638950892927297</v>
       </c>
       <c r="I93" t="s">
         <v>16</v>
@@ -10051,7 +10051,7 @@
         <v>12</v>
       </c>
       <c r="M93">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="N93" t="s">
         <v>13</v>
@@ -10069,7 +10069,7 @@
         <v>17</v>
       </c>
       <c r="S93">
-        <v>1.08098493303679</v>
+        <v>1.07561383928678</v>
       </c>
       <c r="T93" t="s">
         <v>18</v>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="3"/>
-        <v>0.26252790178607199</v>
+        <v>0.26922433035750704</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
@@ -10105,7 +10105,7 @@
         <v>15</v>
       </c>
       <c r="H94">
-        <v>1.0809988839296401</v>
+        <v>1.0756277901796401</v>
       </c>
       <c r="I94" t="s">
         <v>16</v>
@@ -10139,7 +10139,7 @@
         <v>17</v>
       </c>
       <c r="S94">
-        <v>1.3617885044657401</v>
+        <v>1.34083426339428</v>
       </c>
       <c r="T94" t="s">
         <v>18</v>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="3"/>
-        <v>0.28078962053610002</v>
+        <v>0.26520647321463997</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
@@ -10157,7 +10157,7 @@
         <v>12</v>
       </c>
       <c r="B95">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -10175,7 +10175,7 @@
         <v>15</v>
       </c>
       <c r="H95">
-        <v>1.3618024553585999</v>
+        <v>1.3408482142871401</v>
       </c>
       <c r="I95" t="s">
         <v>16</v>
@@ -10185,13 +10185,13 @@
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L95" t="s">
         <v>12</v>
       </c>
       <c r="M95">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="N95" t="s">
         <v>13</v>
@@ -10209,7 +10209,7 @@
         <v>17</v>
       </c>
       <c r="S95">
-        <v>1.6235491071446699</v>
+        <v>1.6079101562517899</v>
       </c>
       <c r="T95" t="s">
         <v>18</v>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="3"/>
-        <v>0.26174665178607004</v>
+        <v>0.26706194196464983</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
@@ -10227,7 +10227,7 @@
         <v>12</v>
       </c>
       <c r="B96">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -10245,7 +10245,7 @@
         <v>15</v>
       </c>
       <c r="H96">
-        <v>1.62356305803753</v>
+        <v>1.60792410714465</v>
       </c>
       <c r="I96" t="s">
         <v>16</v>
@@ -10255,13 +10255,13 @@
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L96" t="s">
         <v>12</v>
       </c>
       <c r="M96">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="N96" t="s">
         <v>13</v>
@@ -10279,7 +10279,7 @@
         <v>17</v>
       </c>
       <c r="S96">
-        <v>1.8875418526807399</v>
+        <v>1.88261718750217</v>
       </c>
       <c r="T96" t="s">
         <v>18</v>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="3"/>
-        <v>0.26397879464320995</v>
+        <v>0.27469308035752005</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
@@ -10297,7 +10297,7 @@
         <v>12</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>449</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -10315,7 +10315,7 @@
         <v>15</v>
       </c>
       <c r="H97">
-        <v>1.8875558035736</v>
+        <v>1.8826311383950201</v>
       </c>
       <c r="I97" t="s">
         <v>16</v>
@@ -10331,7 +10331,7 @@
         <v>12</v>
       </c>
       <c r="M97">
-        <v>15</v>
+        <v>449</v>
       </c>
       <c r="N97" t="s">
         <v>13</v>
@@ -10349,7 +10349,7 @@
         <v>17</v>
       </c>
       <c r="S97">
-        <v>2.1566824776786202</v>
+        <v>2.1621372767856801</v>
       </c>
       <c r="T97" t="s">
         <v>18</v>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="3"/>
-        <v>0.26912667410502022</v>
+        <v>0.27950613839066007</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
@@ -10367,7 +10367,7 @@
         <v>12</v>
       </c>
       <c r="B98">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -10385,7 +10385,7 @@
         <v>15</v>
       </c>
       <c r="H98">
-        <v>2.15669642857147</v>
+        <v>2.1621512276785402</v>
       </c>
       <c r="I98" t="s">
         <v>16</v>
@@ -10401,7 +10401,7 @@
         <v>12</v>
       </c>
       <c r="M98">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="N98" t="s">
         <v>13</v>
@@ -10419,7 +10419,7 @@
         <v>17</v>
       </c>
       <c r="S98">
-        <v>2.4195452008890799</v>
+        <v>2.4282645089246602</v>
       </c>
       <c r="T98" t="s">
         <v>18</v>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="3"/>
-        <v>0.26284877231760984</v>
+        <v>0.26611328124611999</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
@@ -10437,7 +10437,7 @@
         <v>12</v>
       </c>
       <c r="B99">
-        <v>457</v>
+        <v>239</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -10455,7 +10455,7 @@
         <v>15</v>
       </c>
       <c r="H99">
-        <v>2.4195591517819302</v>
+        <v>2.4282784598175202</v>
       </c>
       <c r="I99" t="s">
         <v>16</v>
@@ -10471,7 +10471,7 @@
         <v>12</v>
       </c>
       <c r="M99">
-        <v>457</v>
+        <v>239</v>
       </c>
       <c r="N99" t="s">
         <v>13</v>
@@ -10489,7 +10489,7 @@
         <v>17</v>
       </c>
       <c r="S99">
-        <v>2.6942103794565102</v>
+        <v>2.6915039062422599</v>
       </c>
       <c r="T99" t="s">
         <v>18</v>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="3"/>
-        <v>0.27465122767458006</v>
+        <v>0.26322544642473966</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
@@ -10541,7 +10541,7 @@
         <v>12</v>
       </c>
       <c r="B101">
-        <v>413</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -10575,7 +10575,7 @@
         <v>12</v>
       </c>
       <c r="M101">
-        <v>413</v>
+        <v>121</v>
       </c>
       <c r="N101" t="s">
         <v>13</v>
@@ -10593,7 +10593,7 @@
         <v>17</v>
       </c>
       <c r="S101">
-        <v>0.295242745535718</v>
+        <v>0.29450334821428897</v>
       </c>
       <c r="T101" t="s">
         <v>18</v>
@@ -10603,7 +10603,7 @@
       </c>
       <c r="V101">
         <f t="shared" si="3"/>
-        <v>0.2696568080357169</v>
+        <v>0.26891741071428787</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
@@ -10611,7 +10611,7 @@
         <v>12</v>
       </c>
       <c r="B102">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -10629,7 +10629,7 @@
         <v>15</v>
       </c>
       <c r="H102">
-        <v>0.29525669642857499</v>
+        <v>0.29451729910714602</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -10645,7 +10645,7 @@
         <v>12</v>
       </c>
       <c r="M102">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="N102" t="s">
         <v>13</v>
@@ -10663,7 +10663,7 @@
         <v>17</v>
       </c>
       <c r="S102">
-        <v>0.57064732142895103</v>
+        <v>0.57006138392895001</v>
       </c>
       <c r="T102" t="s">
         <v>18</v>
@@ -10673,7 +10673,7 @@
       </c>
       <c r="V102">
         <f t="shared" si="3"/>
-        <v>0.27539062500037603</v>
+        <v>0.27554408482180398</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
@@ -10681,7 +10681,7 @@
         <v>12</v>
       </c>
       <c r="B103">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -10699,7 +10699,7 @@
         <v>15</v>
       </c>
       <c r="H103">
-        <v>0.57066127232180797</v>
+        <v>0.57007533482180694</v>
       </c>
       <c r="I103" t="s">
         <v>16</v>
@@ -10715,7 +10715,7 @@
         <v>12</v>
       </c>
       <c r="M103">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="N103" t="s">
         <v>13</v>
@@ -10733,7 +10733,7 @@
         <v>17</v>
       </c>
       <c r="S103">
-        <v>0.84631696428646996</v>
+        <v>0.86135602678649104</v>
       </c>
       <c r="T103" t="s">
         <v>18</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="V103">
         <f t="shared" si="3"/>
-        <v>0.275655691964662</v>
+        <v>0.29128069196468409</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
@@ -10751,13 +10751,13 @@
         <v>12</v>
       </c>
       <c r="B104">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -10769,13 +10769,13 @@
         <v>15</v>
       </c>
       <c r="H104">
-        <v>0.84645647321504203</v>
+        <v>0.86136997767934798</v>
       </c>
       <c r="I104" t="s">
         <v>16</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K104">
         <f t="shared" si="2"/>
@@ -10785,13 +10785,13 @@
         <v>12</v>
       </c>
       <c r="M104">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="N104" t="s">
         <v>13</v>
       </c>
       <c r="O104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P104" t="s">
         <v>14</v>
@@ -10803,17 +10803,17 @@
         <v>17</v>
       </c>
       <c r="S104">
-        <v>0.902678571429404</v>
+        <v>1.1522042410726001</v>
       </c>
       <c r="T104" t="s">
         <v>18</v>
       </c>
       <c r="U104">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V104">
         <f t="shared" si="3"/>
-        <v>5.6222098214361971E-2</v>
+        <v>0.29083426339325213</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
@@ -10821,7 +10821,7 @@
         <v>12</v>
       </c>
       <c r="B105">
-        <v>141</v>
+        <v>467</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -10839,7 +10839,7 @@
         <v>15</v>
       </c>
       <c r="H105">
-        <v>0.90269252232226105</v>
+        <v>1.1522181919654499</v>
       </c>
       <c r="I105" t="s">
         <v>16</v>
@@ -10849,13 +10849,13 @@
       </c>
       <c r="K105">
         <f t="shared" si="2"/>
-        <v>2017.7571428571428</v>
+        <v>1725.3285714285714</v>
       </c>
       <c r="L105" t="s">
         <v>12</v>
       </c>
       <c r="M105">
-        <v>141</v>
+        <v>467</v>
       </c>
       <c r="N105" t="s">
         <v>13</v>
@@ -10873,7 +10873,7 @@
         <v>17</v>
       </c>
       <c r="S105">
-        <v>1.1737025669654799</v>
+        <v>1.42869698660869</v>
       </c>
       <c r="T105" t="s">
         <v>18</v>
@@ -10883,7 +10883,7 @@
       </c>
       <c r="V105">
         <f t="shared" si="3"/>
-        <v>0.27101004464321887</v>
+        <v>0.2764787946432401</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
@@ -10891,13 +10891,13 @@
         <v>12</v>
       </c>
       <c r="B106">
-        <v>55</v>
+        <v>418</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
@@ -10909,29 +10909,29 @@
         <v>15</v>
       </c>
       <c r="H106">
-        <v>1.17371651785834</v>
+        <v>1.4288364955372601</v>
       </c>
       <c r="I106" t="s">
         <v>16</v>
       </c>
       <c r="J106">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <f t="shared" si="2"/>
-        <v>2012.8833333333332</v>
+        <v>1671.7166666666665</v>
       </c>
       <c r="L106" t="s">
         <v>12</v>
       </c>
       <c r="M106">
-        <v>55</v>
+        <v>418</v>
       </c>
       <c r="N106" t="s">
         <v>13</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" t="s">
         <v>14</v>
@@ -10943,17 +10943,17 @@
         <v>17</v>
       </c>
       <c r="S106">
-        <v>1.45119977678729</v>
+        <v>1.5389090401802701</v>
       </c>
       <c r="T106" t="s">
         <v>18</v>
       </c>
       <c r="U106">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V106">
         <f t="shared" si="3"/>
-        <v>0.27748325892894998</v>
+        <v>0.11007254464300997</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
@@ -10961,7 +10961,7 @@
         <v>12</v>
       </c>
       <c r="B107">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
@@ -10979,7 +10979,7 @@
         <v>15</v>
       </c>
       <c r="H107">
-        <v>1.45121372768015</v>
+        <v>1.5389229910731199</v>
       </c>
       <c r="I107" t="s">
         <v>16</v>
@@ -10995,7 +10995,7 @@
         <v>12</v>
       </c>
       <c r="M107">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="N107" t="s">
         <v>13</v>
@@ -11013,7 +11013,7 @@
         <v>17</v>
       </c>
       <c r="S107">
-        <v>1.7192103794662299</v>
+        <v>1.81595982143065</v>
       </c>
       <c r="T107" t="s">
         <v>18</v>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="V107">
         <f t="shared" si="3"/>
-        <v>0.2679966517860799</v>
+        <v>0.27703683035753013</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
@@ -11031,7 +11031,7 @@
         <v>12</v>
       </c>
       <c r="B108">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -11049,7 +11049,7 @@
         <v>15</v>
       </c>
       <c r="H108">
-        <v>1.7192243303590899</v>
+        <v>1.8159737723235001</v>
       </c>
       <c r="I108" t="s">
         <v>16</v>
@@ -11065,7 +11065,7 @@
         <v>12</v>
       </c>
       <c r="M108">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="N108" t="s">
         <v>13</v>
@@ -11083,7 +11083,7 @@
         <v>17</v>
       </c>
       <c r="S108">
-        <v>2.0009347098237402</v>
+        <v>2.0882952008939002</v>
       </c>
       <c r="T108" t="s">
         <v>18</v>
@@ -11093,7 +11093,7 @@
       </c>
       <c r="V108">
         <f t="shared" si="3"/>
-        <v>0.28171037946465027</v>
+        <v>0.27232142857040009</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
@@ -11101,7 +11101,7 @@
         <v>12</v>
       </c>
       <c r="B109">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -11119,7 +11119,7 @@
         <v>15</v>
       </c>
       <c r="H109">
-        <v>2.0009486607165998</v>
+        <v>2.08830915178675</v>
       </c>
       <c r="I109" t="s">
         <v>16</v>
@@ -11135,7 +11135,7 @@
         <v>12</v>
       </c>
       <c r="M109">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="N109" t="s">
         <v>13</v>
@@ -11153,7 +11153,7 @@
         <v>17</v>
       </c>
       <c r="S109">
-        <v>2.2994559151765399</v>
+        <v>2.3646623883898799</v>
       </c>
       <c r="T109" t="s">
         <v>18</v>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="V109">
         <f t="shared" si="3"/>
-        <v>0.29850725445994009</v>
+        <v>0.27635323660312983</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
@@ -11171,7 +11171,7 @@
         <v>12</v>
       </c>
       <c r="B110">
-        <v>131</v>
+        <v>485</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
@@ -11189,7 +11189,7 @@
         <v>15</v>
       </c>
       <c r="H110">
-        <v>2.2994698660694</v>
+        <v>2.3646763392827301</v>
       </c>
       <c r="I110" t="s">
         <v>16</v>
@@ -11205,7 +11205,7 @@
         <v>12</v>
       </c>
       <c r="M110">
-        <v>131</v>
+        <v>485</v>
       </c>
       <c r="N110" t="s">
         <v>13</v>
@@ -11223,7 +11223,7 @@
         <v>17</v>
       </c>
       <c r="S110">
-        <v>2.5824079241009898</v>
+        <v>2.6482421874928899</v>
       </c>
       <c r="T110" t="s">
         <v>18</v>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="V110">
         <f t="shared" si="3"/>
-        <v>0.28293805803158989</v>
+        <v>0.28356584821015973</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
@@ -11299,46 +11299,46 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>0.24485630580311249</v>
+        <v>0.25256835937443073</v>
       </c>
       <c r="C2" s="1">
-        <v>0.26209542410750108</v>
+        <v>0.25785435267855789</v>
       </c>
       <c r="D2" s="1">
-        <v>0.14534040178591201</v>
+        <v>0.24920479910748017</v>
       </c>
       <c r="E2" s="1">
-        <v>1842</v>
+        <v>2047</v>
       </c>
       <c r="G2" s="1">
         <v>0.05</v>
       </c>
       <c r="H2" s="1">
         <f>ROUND(B2,6)</f>
-        <v>0.24485599999999999</v>
+        <v>0.25256800000000001</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:J2" si="0">ROUND(C2,6)</f>
-        <v>0.26209500000000002</v>
+        <v>0.25785400000000003</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>0.14534</v>
+        <v>0.24920500000000001</v>
       </c>
       <c r="L2">
-        <v>0.25502232142855391</v>
+        <v>0.25785435267855789</v>
       </c>
       <c r="M2" s="2">
         <f>AVERAGE(L2:L11)</f>
-        <v>0.24485630580311249</v>
+        <v>0.25256835937443073</v>
       </c>
       <c r="N2" s="2">
         <f>MAX(L2:L11)</f>
-        <v>0.26209542410750108</v>
+        <v>0.25785435267855789</v>
       </c>
       <c r="O2" s="2">
         <f>MIN(L2:L11)</f>
-        <v>0.14534040178591201</v>
+        <v>0.24920479910748017</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -11346,13 +11346,13 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.25444754464225977</v>
+        <v>0.25300781249942278</v>
       </c>
       <c r="C3" s="1">
-        <v>0.26124441964284889</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="D3" s="1">
-        <v>0.24669363839319397</v>
+        <v>0.24859095982176804</v>
       </c>
       <c r="E3" s="1">
         <v>2047</v>
@@ -11362,26 +11362,26 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H11" si="1">ROUND(B3,6)</f>
-        <v>0.25444800000000001</v>
+        <v>0.25300800000000001</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I11" si="2">ROUND(C3,6)</f>
-        <v>0.26124399999999998</v>
+        <v>0.25958399999999998</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J11" si="3">ROUND(D3,6)</f>
-        <v>0.246694</v>
+        <v>0.24859100000000001</v>
       </c>
       <c r="L3">
-        <v>0.25941685267892495</v>
+        <v>0.249204799107482</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" si="4">AVERAGE(L3:L12)</f>
-        <v>0.21935407366025711</v>
+        <v>0.226782924106575</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="5">MAX(L3:L12)</f>
-        <v>0.26209542410750108</v>
+        <v>0.25613839285341999</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="6">MIN(L3:L12)</f>
@@ -11393,13 +11393,13 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2378543526782147</v>
+        <v>0.22973353794619472</v>
       </c>
       <c r="C4" s="1">
-        <v>0.26861049106948021</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="D4" s="1">
-        <v>6.4536830357231012E-2</v>
+        <v>2.4581473214319915E-2</v>
       </c>
       <c r="E4" s="1">
         <v>1842</v>
@@ -11409,26 +11409,26 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>0.23785400000000001</v>
+        <v>0.22973399999999999</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="2"/>
-        <v>0.26861000000000002</v>
+        <v>0.26114700000000002</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>6.4536999999999997E-2</v>
+        <v>2.4580999999999999E-2</v>
       </c>
       <c r="L4">
-        <v>0.14534040178591201</v>
+        <v>0.252943638393203</v>
       </c>
       <c r="M4">
         <f t="shared" si="4"/>
-        <v>0.21953683035664948</v>
+        <v>0.22672433035653841</v>
       </c>
       <c r="N4">
         <f t="shared" si="5"/>
-        <v>0.26209542410750108</v>
+        <v>0.25613839285341999</v>
       </c>
       <c r="O4">
         <f t="shared" si="6"/>
@@ -11440,42 +11440,42 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.23433454241040752</v>
+        <v>0.25678013392794075</v>
       </c>
       <c r="C5" s="1">
-        <v>0.26655970982179195</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="D5" s="1">
-        <v>4.1099330357199038E-2</v>
+        <v>0.24747488839319498</v>
       </c>
       <c r="E5" s="1">
-        <v>1842</v>
+        <v>2047</v>
       </c>
       <c r="G5" s="1">
         <v>0.2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0.23433499999999999</v>
+        <v>0.25678000000000001</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="2"/>
-        <v>0.26656000000000002</v>
+        <v>0.268206</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>4.1098999999999997E-2</v>
+        <v>0.247475</v>
       </c>
       <c r="L5">
-        <v>0.26209542410750108</v>
+        <v>0.25203683035748414</v>
       </c>
       <c r="M5">
         <f t="shared" si="4"/>
-        <v>0.22967215401737767</v>
+        <v>0.2262890624993949</v>
       </c>
       <c r="N5">
         <f t="shared" si="5"/>
-        <v>0.26209542410750108</v>
+        <v>0.25613839285341999</v>
       </c>
       <c r="O5">
         <f t="shared" si="6"/>
@@ -11487,42 +11487,42 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.26000697544575174</v>
+        <v>0.24174107142815876</v>
       </c>
       <c r="C6" s="1">
-        <v>0.27647879464323988</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="D6" s="1">
-        <v>0.25125558035748308</v>
+        <v>9.4963727678700094E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>2047</v>
+        <v>1842</v>
       </c>
       <c r="G6" s="1">
         <v>0.25</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>0.26000699999999999</v>
+        <v>0.24174100000000001</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>0.27647899999999997</v>
+        <v>0.26828999999999997</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>0.25125599999999998</v>
+        <v>9.4964000000000007E-2</v>
       </c>
       <c r="L6">
-        <v>0.25058593750033309</v>
+        <v>0.24920479910748017</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>0.22910295758880542</v>
+        <v>0.22606724330296632</v>
       </c>
       <c r="N6">
         <f t="shared" si="5"/>
-        <v>0.26148158482177997</v>
+        <v>0.25613839285341999</v>
       </c>
       <c r="O6">
         <f t="shared" si="6"/>
@@ -11533,43 +11533,43 @@
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.23463030133897878</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.27219587053609007</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.6548549107179964E-2</v>
+      <c r="B7">
+        <v>0.25796874999935182</v>
+      </c>
+      <c r="C7">
+        <v>0.27721819196465491</v>
+      </c>
+      <c r="D7">
+        <v>0.249037388393197</v>
       </c>
       <c r="E7" s="1">
-        <v>1842</v>
+        <v>2047</v>
       </c>
       <c r="G7" s="1">
         <v>0.3</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>0.23463000000000001</v>
+        <v>0.257969</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>0.27219599999999999</v>
+        <v>0.27721800000000002</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>2.6549E-2</v>
+        <v>0.24903700000000001</v>
       </c>
       <c r="L7">
-        <v>0.26018415178607013</v>
+        <v>0.25449218750034008</v>
       </c>
       <c r="M7">
         <f t="shared" si="4"/>
-        <v>0.22991768973166379</v>
+        <v>0.22700474330296783</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>0.26148158482177997</v>
+        <v>0.25857979910749507</v>
       </c>
       <c r="O7">
         <f t="shared" si="6"/>
@@ -11580,14 +11580,14 @@
       <c r="A8" s="1">
         <v>0.35</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.26029575892788875</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.27520926339322394</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.25327845982177399</v>
+      <c r="B8">
+        <v>0.2562555803565188</v>
+      </c>
+      <c r="C8">
+        <v>0.26517857142470991</v>
+      </c>
+      <c r="D8">
+        <v>0.25090680803569188</v>
       </c>
       <c r="E8" s="1">
         <v>2047</v>
@@ -11597,26 +11597,26 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>0.26029600000000003</v>
+        <v>0.25625599999999998</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>0.27520899999999998</v>
+        <v>0.265179</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>0.253278</v>
+        <v>0.25090699999999999</v>
       </c>
       <c r="L8">
-        <v>0.26148158482177997</v>
+        <v>0.2532226562503499</v>
       </c>
       <c r="M8">
         <f t="shared" si="4"/>
-        <v>0.22915457589237676</v>
+        <v>0.22682198660653982</v>
       </c>
       <c r="N8">
         <f t="shared" si="5"/>
-        <v>0.26148158482177997</v>
+        <v>0.25857979910749507</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
@@ -11627,43 +11627,43 @@
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.22573800223195978</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.28016183035751996</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5.2036830357209851E-2</v>
+      <c r="B9">
+        <v>0.23517717633897747</v>
+      </c>
+      <c r="C9">
+        <v>0.44083426339345988</v>
+      </c>
+      <c r="D9">
+        <v>3.0203683035715915E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>1637</v>
+        <v>1432</v>
       </c>
       <c r="G9" s="1">
         <v>0.4</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>0.22573799999999999</v>
+        <v>0.235177</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>0.28016200000000002</v>
+        <v>0.440834</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>5.2037E-2</v>
+        <v>3.0204000000000002E-2</v>
       </c>
       <c r="L9">
-        <v>0.25199497767891987</v>
+        <v>0.25072544642819006</v>
       </c>
       <c r="M9">
         <f t="shared" si="4"/>
-        <v>0.22808733258880473</v>
+        <v>0.22745814732082578</v>
       </c>
       <c r="N9">
         <f t="shared" si="5"/>
-        <v>0.26124441964284889</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O9">
         <f t="shared" si="6"/>
@@ -11674,14 +11674,14 @@
       <c r="A10" s="1">
         <v>0.45</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.26684988839208079</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.28078962053610002</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.25980747767892598</v>
+      <c r="B10">
+        <v>0.26657924107065373</v>
+      </c>
+      <c r="C10">
+        <v>0.27950613839066007</v>
+      </c>
+      <c r="D10">
+        <v>0.256515066964636</v>
       </c>
       <c r="E10" s="1">
         <v>2047</v>
@@ -11691,26 +11691,26 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>0.26684999999999998</v>
+        <v>0.26657900000000001</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>0.28078999999999998</v>
+        <v>0.27950599999999998</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>0.25980700000000001</v>
+        <v>0.25651499999999999</v>
       </c>
       <c r="L10">
-        <v>0.25195312499678013</v>
+        <v>0.25613839285341999</v>
       </c>
       <c r="M10">
         <f t="shared" si="4"/>
-        <v>0.22885742187451977</v>
+        <v>0.2277008928566128</v>
       </c>
       <c r="N10">
         <f t="shared" si="5"/>
-        <v>0.26124441964284889</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O10">
         <f t="shared" si="6"/>
@@ -11721,14 +11721,14 @@
       <c r="A11" s="1">
         <v>0.49</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.25565708705295459</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.29850725445994009</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5.6222098214361971E-2</v>
+      <c r="B11">
+        <v>0.26224051339214977</v>
+      </c>
+      <c r="C11">
+        <v>0.29128069196468409</v>
+      </c>
+      <c r="D11">
+        <v>0.11007254464300997</v>
       </c>
       <c r="E11" s="1">
         <v>1842</v>
@@ -11738,26 +11738,26 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>0.25565700000000002</v>
+        <v>0.262241</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="2"/>
-        <v>0.29850700000000002</v>
+        <v>0.29128100000000001</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>5.6222000000000001E-2</v>
+        <v>0.110073</v>
       </c>
       <c r="L11">
-        <v>0.25048828124634959</v>
+        <v>0.24986049106780017</v>
       </c>
       <c r="M11">
         <f t="shared" si="4"/>
-        <v>0.22877092633906176</v>
+        <v>0.22761997767836481</v>
       </c>
       <c r="N11">
         <f t="shared" si="5"/>
-        <v>0.26124441964284889</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O11">
         <f t="shared" si="6"/>
@@ -11770,11 +11770,11 @@
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
-        <v>0.22948660714262376</v>
+        <v>0.2277455357140768</v>
       </c>
       <c r="N12">
         <f t="shared" si="5"/>
-        <v>0.26124441964284889</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O12">
         <f t="shared" si="6"/>
@@ -11783,19 +11783,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L13">
-        <v>0.26124441964284889</v>
+        <v>0.24861886160711688</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="4"/>
-        <v>0.25444754464225977</v>
+        <v>0.25300781249942278</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="5"/>
-        <v>0.26124441964284889</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="6"/>
-        <v>0.24669363839319397</v>
+        <v>0.24859095982176804</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -11816,15 +11816,15 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14">
-        <v>0.24669363839319397</v>
+        <v>0.24859095982176804</v>
       </c>
       <c r="M14">
         <f t="shared" si="4"/>
-        <v>0.22832310267797493</v>
+        <v>0.22814592633871111</v>
       </c>
       <c r="N14">
         <f t="shared" si="5"/>
-        <v>0.25969587053607013</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O14">
         <f t="shared" si="6"/>
@@ -11837,30 +11837,30 @@
       </c>
       <c r="B15" s="1">
         <f>E2/B2</f>
-        <v>7522.7795092242441</v>
+        <v>8104.7364961710728</v>
       </c>
       <c r="C15" s="1">
         <f>E2/C2</f>
-        <v>7027.9746633214208</v>
+        <v>7938.5900557273008</v>
       </c>
       <c r="D15" s="1">
         <f>E2/D2</f>
-        <v>12673.695526955305</v>
+        <v>8214.1275261602968</v>
       </c>
       <c r="E15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="L15">
-        <v>0.25640345982177803</v>
+        <v>0.24981863839319807</v>
       </c>
       <c r="M15">
         <f t="shared" si="4"/>
-        <v>0.22910993303508231</v>
+        <v>0.22873325892796109</v>
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>0.25969587053607013</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O15">
         <f t="shared" si="6"/>
@@ -11873,30 +11873,30 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ref="B16:B24" si="7">E3/B3</f>
-        <v>8044.8801456425026</v>
+        <v>8090.6592558467737</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ref="C16:C24" si="8">E3/C3</f>
-        <v>7835.5740681408006</v>
+        <v>7885.6860321277254</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ref="D16:D24" si="9">E3/D3</f>
-        <v>8297.741333472808</v>
+        <v>8234.4104607329045</v>
       </c>
       <c r="E16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16">
-        <v>0.25873325892891708</v>
+        <v>0.25857979910749507</v>
       </c>
       <c r="M16">
         <f t="shared" si="4"/>
-        <v>0.22945591517794001</v>
+        <v>0.22886718749938989</v>
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
-        <v>0.25986328125035502</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
@@ -11909,30 +11909,30 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="7"/>
-        <v>7744.2349877531187</v>
+        <v>8017.984733388862</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="8"/>
-        <v>6857.5132440509879</v>
+        <v>7053.5049949151462</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="9"/>
-        <v>28541.841763903944</v>
+        <v>74934.483541325928</v>
       </c>
       <c r="E17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="L17">
-        <v>0.25255301339319991</v>
+        <v>0.25266462053605987</v>
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
-        <v>0.21003627232077143</v>
+        <v>0.22784598214224566</v>
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>0.25986328125035502</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O17">
         <f t="shared" si="6"/>
@@ -11945,30 +11945,30 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="7"/>
-        <v>7860.5568818529891</v>
+        <v>7971.8004998565893</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="8"/>
-        <v>6910.2716281896692</v>
+        <v>7632.195578701816</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="9"/>
-        <v>44818.248472443825</v>
+        <v>8271.5463103782458</v>
       </c>
       <c r="E18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18">
-        <v>0.25080915178606</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="M18">
         <f t="shared" si="4"/>
-        <v>0.21003069196362878</v>
+        <v>0.2274665178565308</v>
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>0.25986328125035502</v>
+        <v>0.25958426339320995</v>
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
@@ -11981,30 +11981,30 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="7"/>
-        <v>7872.8657048167897</v>
+        <v>7619.722991702758</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="8"/>
-        <v>7403.8227873547721</v>
+        <v>6865.7147314138674</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="9"/>
-        <v>8147.0827318046258</v>
+        <v>19396.879682653314</v>
       </c>
       <c r="E19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="L19">
-        <v>0.25969587053607013</v>
+        <v>0.25315290178606009</v>
       </c>
       <c r="M19">
         <f t="shared" si="4"/>
-        <v>0.20998186383862771</v>
+        <v>0.22691964285653077</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>0.25986328125035502</v>
+        <v>0.25532924107094002</v>
       </c>
       <c r="O19">
         <f t="shared" si="6"/>
@@ -12017,30 +12017,30 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="7"/>
-        <v>7850.6484008593452</v>
+        <v>7935.069654774632</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="8"/>
-        <v>6767.1856901141773</v>
+        <v>7384.0752855822348</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="9"/>
-        <v>69382.322648352841</v>
+        <v>8219.6493193546448</v>
       </c>
       <c r="E20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="L20">
-        <v>0.25108816964220004</v>
+        <v>0.25532924107094002</v>
       </c>
       <c r="M20">
         <f t="shared" si="4"/>
-        <v>0.20914481026719769</v>
+        <v>0.22673688616010276</v>
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
-        <v>0.25986328125035502</v>
+        <v>0.25532924107094002</v>
       </c>
       <c r="O20">
         <f t="shared" si="6"/>
@@ -12053,30 +12053,30 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="7"/>
-        <v>7864.131203793806</v>
+        <v>7988.118725656961</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="8"/>
-        <v>7437.9763775436932</v>
+        <v>7719.3265994390076</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="9"/>
-        <v>8082.0137703001865</v>
+        <v>8158.4075618578318</v>
       </c>
       <c r="E21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="L21">
-        <v>0.25764508928196994</v>
+        <v>0.25111607142491987</v>
       </c>
       <c r="M21">
         <f t="shared" si="4"/>
-        <v>0.20988699776729866</v>
+        <v>0.22731863839233077</v>
       </c>
       <c r="N21">
         <f t="shared" si="5"/>
-        <v>0.25986328125035502</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="O21">
         <f t="shared" si="6"/>
@@ -12089,30 +12089,30 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="7"/>
-        <v>7251.769679071941</v>
+        <v>6089.0262494518483</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="8"/>
-        <v>5843.0514888876633</v>
+        <v>3248.3863413354743</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="9"/>
-        <v>31458.487935616336</v>
+        <v>47411.436489604836</v>
       </c>
       <c r="E22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="L22">
-        <v>0.24960937499636016</v>
+        <v>0.25262276785346005</v>
       </c>
       <c r="M22">
         <f t="shared" si="4"/>
-        <v>0.21005859374985167</v>
+        <v>0.20466517857127081</v>
       </c>
       <c r="N22">
         <f t="shared" si="5"/>
-        <v>0.25986328125035502</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
@@ -12125,15 +12125,15 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="7"/>
-        <v>7670.9794121868108</v>
+        <v>7678.767453079613</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="8"/>
-        <v>7290.1555124856377</v>
+        <v>7323.631644679479</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="9"/>
-        <v>7878.9110239918255</v>
+        <v>7980.0380703649116</v>
       </c>
       <c r="E23" s="1"/>
       <c r="H23" s="1"/>
@@ -12144,11 +12144,11 @@
       </c>
       <c r="M23">
         <f t="shared" si="4"/>
-        <v>0.21195870535716371</v>
+        <v>0.20459681919655975</v>
       </c>
       <c r="N23">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
@@ -12161,47 +12161,47 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="7"/>
-        <v>7204.9635753632137</v>
+        <v>7024.0863098277505</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="8"/>
-        <v>6170.7043044315624</v>
+        <v>6323.7971167115002</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="9"/>
-        <v>32762.918114099484</v>
+        <v>16734.418250927334</v>
       </c>
       <c r="E24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="L24">
-        <v>0.2545619419642679</v>
+        <v>0.25446428571426788</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="4"/>
-        <v>0.2378543526782147</v>
+        <v>0.22973353794619472</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="6"/>
-        <v>6.4536830357231012E-2</v>
+        <v>2.4581473214319915E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L25">
-        <v>0.25986328125035502</v>
+        <v>0.251157924107486</v>
       </c>
       <c r="M25">
         <f t="shared" si="4"/>
-        <v>0.21239815848178792</v>
+        <v>0.20428710937476793</v>
       </c>
       <c r="N25">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="O25">
         <f t="shared" si="6"/>
@@ -12210,15 +12210,15 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L26">
-        <v>6.4536830357231012E-2</v>
+        <v>0.24836774553605301</v>
       </c>
       <c r="M26">
         <f t="shared" si="4"/>
-        <v>0.212011718749608</v>
+        <v>0.20446847098187454</v>
       </c>
       <c r="N26">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="O26">
         <f t="shared" si="6"/>
@@ -12239,15 +12239,15 @@
         <v>23</v>
       </c>
       <c r="L27">
-        <v>0.25249720982177393</v>
+        <v>0.24886997767891106</v>
       </c>
       <c r="M27">
         <f t="shared" si="4"/>
-        <v>0.23221400669606407</v>
+        <v>0.20469168526758913</v>
       </c>
       <c r="N27">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
@@ -12260,26 +12260,26 @@
       </c>
       <c r="B28" s="1">
         <f>FLOOR(B15,1)</f>
-        <v>7522</v>
+        <v>8104</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ref="C28:D28" si="10">FLOOR(C15,1)</f>
-        <v>7027</v>
+        <v>7938</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="10"/>
-        <v>12673</v>
+        <v>8214</v>
       </c>
       <c r="L28">
-        <v>0.25032087053604901</v>
+        <v>0.25411551339320981</v>
       </c>
       <c r="M28">
         <f t="shared" si="4"/>
-        <v>0.21107421874960658</v>
+        <v>0.20455217633901751</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="O28">
         <f t="shared" si="6"/>
@@ -12292,26 +12292,26 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ref="B29:D29" si="11">FLOOR(B16,1)</f>
-        <v>8044</v>
+        <v>8090</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="11"/>
-        <v>7835</v>
+        <v>7885</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="11"/>
-        <v>8297</v>
+        <v>8234</v>
       </c>
       <c r="L29">
-        <v>0.25132533482176989</v>
+        <v>0.2513253348217801</v>
       </c>
       <c r="M29">
         <f t="shared" si="4"/>
-        <v>0.21065569196389239</v>
+        <v>0.20551618303544675</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26375558035750191</v>
       </c>
       <c r="O29">
         <f t="shared" si="6"/>
@@ -12324,26 +12324,26 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ref="B30:D30" si="12">FLOOR(B17,1)</f>
-        <v>7744</v>
+        <v>8017</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="12"/>
-        <v>6857</v>
+        <v>7053</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="12"/>
-        <v>28541</v>
+        <v>74934</v>
       </c>
       <c r="L30">
-        <v>0.25851004464321004</v>
+        <v>0.26114676339321985</v>
       </c>
       <c r="M30">
         <f t="shared" si="4"/>
-        <v>0.21108398437460663</v>
+        <v>0.20619698660687574</v>
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26375558035750191</v>
       </c>
       <c r="O30">
         <f t="shared" si="6"/>
@@ -12356,26 +12356,26 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ref="B31:D31" si="13">FLOOR(B18,1)</f>
-        <v>7860</v>
+        <v>7971</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="13"/>
-        <v>6910</v>
+        <v>7632</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="13"/>
-        <v>44818</v>
+        <v>8271</v>
       </c>
       <c r="L31">
-        <v>0.25936104910750002</v>
+        <v>2.4581473214319915E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="4"/>
-        <v>0.21025809151746255</v>
+        <v>0.20679966517830373</v>
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26717354910750002</v>
       </c>
       <c r="O31">
         <f t="shared" si="6"/>
@@ -12388,26 +12388,26 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ref="B32:D32" si="14">FLOOR(B19,1)</f>
-        <v>7872</v>
+        <v>7619</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="14"/>
-        <v>7403</v>
+        <v>6865</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="14"/>
-        <v>8147</v>
+        <v>19396</v>
       </c>
       <c r="L32">
-        <v>0.26861049106948021</v>
+        <v>0.25193917410634992</v>
       </c>
       <c r="M32">
         <f t="shared" si="4"/>
-        <v>0.20974888392817553</v>
+        <v>0.22949637276762075</v>
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>0.26861049106948021</v>
+        <v>0.26717354910750002</v>
       </c>
       <c r="O32">
         <f t="shared" si="6"/>
@@ -12420,26 +12420,26 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:D33" si="15">FLOOR(B20,1)</f>
-        <v>7850</v>
+        <v>7935</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="15"/>
-        <v>6767</v>
+        <v>7384</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="15"/>
-        <v>69382</v>
+        <v>8219</v>
       </c>
       <c r="L33">
-        <v>0.25895647321050985</v>
+        <v>0.25136718749634968</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>0.20901367187483455</v>
+        <v>0.23112304687474375</v>
       </c>
       <c r="N33">
         <f t="shared" si="5"/>
-        <v>0.26655970982179195</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O33">
         <f t="shared" si="6"/>
@@ -12452,26 +12452,26 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ref="B34:D34" si="16">FLOOR(B21,1)</f>
-        <v>7864</v>
+        <v>7988</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="16"/>
-        <v>7437</v>
+        <v>7719</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="16"/>
-        <v>8082</v>
+        <v>8158</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
         <f t="shared" si="4"/>
-        <v>0.20872070312506655</v>
+        <v>0.23152483258902273</v>
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>0.26655970982179195</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O34">
         <f t="shared" si="6"/>
@@ -12484,30 +12484,30 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ref="B35:D35" si="17">FLOOR(B22,1)</f>
-        <v>7251</v>
+        <v>6089</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="17"/>
-        <v>5843</v>
+        <v>3248</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="17"/>
-        <v>31458</v>
+        <v>47411</v>
       </c>
       <c r="L35">
-        <v>0.25599888392855591</v>
+        <v>0.25297154017855189</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="4"/>
-        <v>0.23433454241040752</v>
+        <v>0.25678013392794075</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="5"/>
-        <v>0.26655970982179195</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="6"/>
-        <v>4.1099330357199038E-2</v>
+        <v>0.24747488839319498</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -12516,26 +12516,26 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ref="B36:D36" si="18">FLOOR(B23,1)</f>
-        <v>7670</v>
+        <v>7678</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="18"/>
-        <v>7290</v>
+        <v>7323</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="18"/>
-        <v>7878</v>
+        <v>7980</v>
       </c>
       <c r="L36">
-        <v>0.26655970982179195</v>
+        <v>0.25059988839319897</v>
       </c>
       <c r="M36">
         <f t="shared" si="4"/>
-        <v>0.20873465401755195</v>
+        <v>0.23148297991008557</v>
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>0.26655970982179195</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O36">
         <f t="shared" si="6"/>
@@ -12548,26 +12548,26 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:D37" si="19">FLOOR(B24,1)</f>
-        <v>7204</v>
+        <v>7024</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="19"/>
-        <v>6170</v>
+        <v>6323</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="19"/>
-        <v>32762</v>
+        <v>16734</v>
       </c>
       <c r="L37">
-        <v>4.1099330357199038E-2</v>
+        <v>0.24747488839319498</v>
       </c>
       <c r="M37">
         <f t="shared" si="4"/>
-        <v>0.20809988839251464</v>
+        <v>0.2325251116064791</v>
       </c>
       <c r="N37">
         <f t="shared" si="5"/>
-        <v>0.26125837053607004</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O37">
         <f t="shared" si="6"/>
@@ -12580,15 +12580,15 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="L38">
-        <v>0.246135602678907</v>
+        <v>0.26375558035750191</v>
       </c>
       <c r="M38">
         <f t="shared" si="4"/>
-        <v>0.22980887276754425</v>
+        <v>0.23392020089219528</v>
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
-        <v>0.26125837053607004</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O38">
         <f t="shared" si="6"/>
@@ -12597,15 +12597,15 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L39">
-        <v>0.25560825892891192</v>
+        <v>0.25813337053606999</v>
       </c>
       <c r="M39">
         <f t="shared" si="4"/>
-        <v>0.23103097098183162</v>
+        <v>0.23257114955290778</v>
       </c>
       <c r="N39">
         <f t="shared" si="5"/>
-        <v>0.26125837053607004</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O39">
         <f t="shared" si="6"/>
@@ -12614,15 +12614,15 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L40">
-        <v>0.25025111607176997</v>
+        <v>0.26717354910750002</v>
       </c>
       <c r="M40">
         <f t="shared" si="4"/>
-        <v>0.23059570312468874</v>
+        <v>0.23232979910647775</v>
       </c>
       <c r="N40">
         <f t="shared" si="5"/>
-        <v>0.26125837053607004</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O40">
         <f t="shared" si="6"/>
@@ -12631,15 +12631,15 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L41">
-        <v>0.25426897321462993</v>
+        <v>0.25154854910748981</v>
       </c>
       <c r="M41">
         <f t="shared" si="4"/>
-        <v>0.23178571428540379</v>
+        <v>0.23073800223147672</v>
       </c>
       <c r="N41">
         <f t="shared" si="5"/>
-        <v>0.26215122767891996</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O41">
         <f t="shared" si="6"/>
@@ -12648,15 +12648,15 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L42">
-        <v>0.26125837053607004</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="M42">
         <f t="shared" si="4"/>
-        <v>0.23400669642826477</v>
+        <v>0.23183175223147776</v>
       </c>
       <c r="N42">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.26820591517757997</v>
       </c>
       <c r="O42">
         <f t="shared" si="6"/>
@@ -12665,15 +12665,15 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L43">
-        <v>0.25602678571283</v>
+        <v>0.25538504463913991</v>
       </c>
       <c r="M43">
         <f t="shared" si="4"/>
-        <v>0.23383231026755075</v>
+        <v>0.23184012276732774</v>
       </c>
       <c r="N43">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="O43">
         <f t="shared" si="6"/>
@@ -12682,15 +12682,15 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L44">
-        <v>0.25613839285340978</v>
+        <v>0.25255301338918024</v>
       </c>
       <c r="M44">
         <f t="shared" si="4"/>
-        <v>0.23408621651755576</v>
+        <v>0.21579799107128378</v>
       </c>
       <c r="N44">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="O44">
         <f t="shared" si="6"/>
@@ -12703,11 +12703,11 @@
       </c>
       <c r="M45">
         <f t="shared" si="4"/>
-        <v>0.23407366071398578</v>
+        <v>0.21605189732138977</v>
       </c>
       <c r="N45">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="O45">
         <f t="shared" si="6"/>
@@ -12716,32 +12716,32 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L46">
-        <v>0.26021205357141891</v>
+        <v>0.26102120535713391</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="4"/>
-        <v>0.26000697544575174</v>
+        <v>0.24174107142815876</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="6"/>
-        <v>0.25125558035748308</v>
+        <v>9.4963727678700094E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L47">
-        <v>0.25818917410749503</v>
+        <v>0.26142578125035698</v>
       </c>
       <c r="M47">
         <f t="shared" si="4"/>
-        <v>0.23398577008860982</v>
+        <v>0.21563895089244536</v>
       </c>
       <c r="N47">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="O47">
         <f t="shared" si="6"/>
@@ -12750,15 +12750,15 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L48">
-        <v>0.25835658482178103</v>
+        <v>0.25026506696462691</v>
       </c>
       <c r="M48">
         <f t="shared" si="4"/>
-        <v>0.23302873883857197</v>
+        <v>0.21464285714240744</v>
       </c>
       <c r="N48">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="O48">
         <f t="shared" si="6"/>
@@ -12767,15 +12767,15 @@
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L49">
-        <v>0.25125558035748308</v>
+        <v>0.25571986607177</v>
       </c>
       <c r="M49">
         <f t="shared" si="4"/>
-        <v>0.23257114955285713</v>
+        <v>0.21452008928526448</v>
       </c>
       <c r="N49">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="O49">
         <f t="shared" si="6"/>
@@ -12784,15 +12784,15 @@
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L50">
-        <v>0.26215122767891996</v>
+        <v>0.25125558035748985</v>
       </c>
       <c r="M50">
         <f t="shared" si="4"/>
-        <v>0.23352120535643012</v>
+        <v>0.21475585937455127</v>
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="O50">
         <f t="shared" si="6"/>
@@ -12801,15 +12801,15 @@
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L51">
-        <v>0.27647879464323988</v>
+        <v>0.26248604910750006</v>
       </c>
       <c r="M51">
         <f t="shared" si="4"/>
-        <v>0.23287806919571574</v>
+        <v>0.21735212053526776</v>
       </c>
       <c r="N51">
         <f t="shared" si="5"/>
-        <v>0.27647879464323988</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O51">
         <f t="shared" si="6"/>
@@ -12818,15 +12818,15 @@
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L52">
-        <v>0.25951450892892991</v>
+        <v>0.26828962053607985</v>
       </c>
       <c r="M52">
         <f t="shared" si="4"/>
-        <v>0.23244977678500076</v>
+        <v>0.21682059151740979</v>
       </c>
       <c r="N52">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O52">
         <f t="shared" si="6"/>
@@ -12835,15 +12835,15 @@
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L53">
-        <v>0.25856584821287987</v>
+        <v>9.4963727678700094E-2</v>
       </c>
       <c r="M53">
         <f t="shared" si="4"/>
-        <v>0.23188755580285672</v>
+        <v>0.21541434151740776</v>
       </c>
       <c r="N53">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O53">
         <f t="shared" si="6"/>
@@ -12852,15 +12852,15 @@
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L54">
-        <v>0.25601283481770976</v>
+        <v>0.25509207589023997</v>
       </c>
       <c r="M54">
         <f t="shared" si="4"/>
-        <v>0.23159877232088971</v>
+        <v>0.23165736607100174</v>
       </c>
       <c r="N54">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O54">
         <f t="shared" si="6"/>
@@ -12869,15 +12869,15 @@
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L55">
-        <v>0.25933314731765966</v>
+        <v>0.25689174106768986</v>
       </c>
       <c r="M55">
         <f t="shared" si="4"/>
-        <v>0.20865234374983679</v>
+        <v>0.23197265624972979</v>
       </c>
       <c r="N55">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O55">
         <f t="shared" si="6"/>
@@ -12890,11 +12890,11 @@
       </c>
       <c r="M56">
         <f t="shared" si="4"/>
-        <v>0.2089285714286378</v>
+        <v>0.23173967633901879</v>
       </c>
       <c r="N56">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O56">
         <f t="shared" si="6"/>
@@ -12903,32 +12903,32 @@
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L57">
-        <v>0.24861886160711688</v>
+        <v>0.25146484374997791</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="4"/>
-        <v>0.23463030133897878</v>
+        <v>0.25796874999935182</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="6"/>
-        <v>2.6548549107179964E-2</v>
+        <v>0.249037388393197</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L58">
-        <v>0.25378069196463204</v>
+        <v>0.249037388393197</v>
       </c>
       <c r="M58">
         <f t="shared" si="4"/>
-        <v>0.20976841517826711</v>
+        <v>0.23282226562435401</v>
       </c>
       <c r="N58">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O58">
         <f t="shared" si="6"/>
@@ -12937,15 +12937,15 @@
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L59">
-        <v>0.26075613839321299</v>
+        <v>0.25807756696463791</v>
       </c>
       <c r="M59">
         <f t="shared" si="4"/>
-        <v>0.21064174107108885</v>
+        <v>0.2330092075886035</v>
       </c>
       <c r="N59">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O59">
         <f t="shared" si="6"/>
@@ -12954,15 +12954,15 @@
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L60">
-        <v>0.2557198660717761</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="M60">
         <f t="shared" si="4"/>
-        <v>0.20989397321394496</v>
+        <v>0.23237304687431695</v>
       </c>
       <c r="N60">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.27721819196465491</v>
       </c>
       <c r="O60">
         <f t="shared" si="6"/>
@@ -12971,15 +12971,15 @@
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L61">
-        <v>0.27219587053609007</v>
+        <v>0.25717075892892005</v>
       </c>
       <c r="M61">
         <f t="shared" si="4"/>
-        <v>0.21004045758894527</v>
+        <v>0.2298284040171715</v>
       </c>
       <c r="N61">
         <f t="shared" si="5"/>
-        <v>0.27219587053609007</v>
+        <v>0.26229073660333002</v>
       </c>
       <c r="O61">
         <f t="shared" si="6"/>
@@ -12988,15 +12988,15 @@
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L62">
-        <v>0.25389229910748989</v>
+        <v>0.25422712053606</v>
       </c>
       <c r="M62">
         <f t="shared" si="4"/>
-        <v>0.21034179687465865</v>
+        <v>0.22970563616002782</v>
       </c>
       <c r="N62">
         <f t="shared" si="5"/>
-        <v>0.27520926339322394</v>
+        <v>0.26229073660333002</v>
       </c>
       <c r="O62">
         <f t="shared" si="6"/>
@@ -13005,15 +13005,15 @@
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L63">
-        <v>0.25567801339320995</v>
+        <v>0.25739397321464019</v>
       </c>
       <c r="M63">
         <f t="shared" si="4"/>
-        <v>0.2106919642853736</v>
+        <v>0.23036830357074276</v>
       </c>
       <c r="N63">
         <f t="shared" si="5"/>
-        <v>0.27520926339322394</v>
+        <v>0.26229073660333002</v>
       </c>
       <c r="O63">
         <f t="shared" si="6"/>
@@ -13022,15 +13022,15 @@
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L64">
-        <v>2.6548549107179964E-2</v>
+        <v>0.25824497767751997</v>
       </c>
       <c r="M64">
         <f t="shared" si="4"/>
-        <v>0.21051339285680068</v>
+        <v>0.23020786830288484</v>
       </c>
       <c r="N64">
         <f t="shared" si="5"/>
-        <v>0.27520926339322394</v>
+        <v>0.26229073660333002</v>
       </c>
       <c r="O64">
         <f t="shared" si="6"/>
@@ -13039,15 +13039,15 @@
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L65">
-        <v>0.26209542410566988</v>
+        <v>0.25456194196058002</v>
       </c>
       <c r="M65">
         <f t="shared" si="4"/>
-        <v>0.2333635602675467</v>
+        <v>0.23008510044588276</v>
       </c>
       <c r="N65">
         <f t="shared" si="5"/>
-        <v>0.27520926339322394</v>
+        <v>0.26229073660333002</v>
       </c>
       <c r="O65">
         <f t="shared" si="6"/>
@@ -13056,15 +13056,15 @@
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L66">
-        <v>0.25701729910340987</v>
+        <v>0.26229073660333002</v>
       </c>
       <c r="M66">
         <f t="shared" si="4"/>
-        <v>0.23308733258899972</v>
+        <v>0.22996372767833079</v>
       </c>
       <c r="N66">
         <f t="shared" si="5"/>
-        <v>0.27520926339322394</v>
+        <v>0.26229073660333002</v>
       </c>
       <c r="O66">
         <f t="shared" si="6"/>
@@ -13077,11 +13077,11 @@
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M110" si="20">AVERAGE(L67:L76)</f>
-        <v>0.23455636160683474</v>
+        <v>0.2302525111604688</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N110" si="21">MAX(L67:L76)</f>
-        <v>0.27520926339322394</v>
+        <v>0.26517857142470991</v>
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O110" si="22">MIN(L67:L76)</f>
@@ -13090,32 +13090,32 @@
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L68">
-        <v>0.2625139508928499</v>
+        <v>0.25090680803569188</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="20"/>
-        <v>0.26029575892788875</v>
+        <v>0.2562555803565188</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="21"/>
-        <v>0.27520926339322394</v>
+        <v>0.26517857142470991</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="22"/>
-        <v>0.25327845982177399</v>
+        <v>0.25090680803569188</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L69">
-        <v>0.25327845982177399</v>
+        <v>0.25171595982177203</v>
       </c>
       <c r="M69">
         <f t="shared" si="20"/>
-        <v>0.23404436383860375</v>
+        <v>0.23116489955294961</v>
       </c>
       <c r="N69">
         <f t="shared" si="21"/>
-        <v>0.27520926339322394</v>
+        <v>0.26517857142470991</v>
       </c>
       <c r="O69">
         <f t="shared" si="22"/>
@@ -13124,15 +13124,15 @@
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L70">
-        <v>0.25718470982177899</v>
+        <v>0.25177176339320095</v>
       </c>
       <c r="M70">
         <f t="shared" si="20"/>
-        <v>0.23413643973142456</v>
+        <v>0.20901367187434397</v>
       </c>
       <c r="N70">
         <f t="shared" si="21"/>
-        <v>0.27520926339322394</v>
+        <v>0.26517857142470991</v>
       </c>
       <c r="O70">
         <f t="shared" si="22"/>
@@ -13141,15 +13141,15 @@
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L71">
-        <v>0.27520926339322394</v>
+        <v>0.25594308035748292</v>
       </c>
       <c r="M71">
         <f t="shared" si="20"/>
-        <v>0.23514648437428312</v>
+        <v>0.20938895089216847</v>
       </c>
       <c r="N71">
         <f t="shared" si="21"/>
-        <v>0.27520926339322394</v>
+        <v>0.26517857142470991</v>
       </c>
       <c r="O71">
         <f t="shared" si="22"/>
@@ -13158,15 +13158,15 @@
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L72">
-        <v>0.25739397321463997</v>
+        <v>0.26085379464321012</v>
       </c>
       <c r="M72">
         <f t="shared" si="20"/>
-        <v>0.2330873325885669</v>
+        <v>0.21043945312431372</v>
       </c>
       <c r="N72">
         <f t="shared" si="21"/>
-        <v>0.27170758928175998</v>
+        <v>0.26644810267893498</v>
       </c>
       <c r="O72">
         <f t="shared" si="22"/>
@@ -13175,15 +13175,15 @@
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L73">
-        <v>0.25389229910748012</v>
+        <v>0.25578962053606014</v>
       </c>
       <c r="M73">
         <f t="shared" si="20"/>
-        <v>0.23329520089213784</v>
+        <v>0.21093749999931455</v>
       </c>
       <c r="N73">
         <f t="shared" si="21"/>
-        <v>0.27170758928175998</v>
+        <v>0.26644810267893498</v>
       </c>
       <c r="O73">
         <f t="shared" si="22"/>
@@ -13192,15 +13192,15 @@
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L74">
-        <v>0.2550502232146401</v>
+        <v>0.25701729910749993</v>
       </c>
       <c r="M74">
         <f t="shared" si="20"/>
-        <v>0.23376813615999584</v>
+        <v>0.21178989955288746</v>
       </c>
       <c r="N74">
         <f t="shared" si="21"/>
-        <v>0.27170758928175998</v>
+        <v>0.26644810267893498</v>
       </c>
       <c r="O74">
         <f t="shared" si="22"/>
@@ -13209,15 +13209,15 @@
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L75">
-        <v>0.25933314732020007</v>
+        <v>0.25334821428505983</v>
       </c>
       <c r="M75">
         <f t="shared" si="20"/>
-        <v>0.2134667968742528</v>
+        <v>0.19029436383857148</v>
       </c>
       <c r="N75">
         <f t="shared" si="21"/>
-        <v>0.27170758928175998</v>
+        <v>0.26644810267893498</v>
       </c>
       <c r="O75">
         <f t="shared" si="22"/>
@@ -13226,15 +13226,15 @@
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L76">
-        <v>0.27170758928175998</v>
+        <v>0.26517857142470991</v>
       </c>
       <c r="M76">
         <f t="shared" si="20"/>
-        <v>0.21336216517798179</v>
+        <v>0.19034179687438552</v>
       </c>
       <c r="N76">
         <f t="shared" si="21"/>
-        <v>0.27170758928175998</v>
+        <v>0.26644810267893498</v>
       </c>
       <c r="O76">
         <f t="shared" si="22"/>
@@ -13243,15 +13243,15 @@
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L77">
-        <v>0.25739397321054014</v>
+        <v>0.26003069196049999</v>
       </c>
       <c r="M77">
         <f t="shared" si="20"/>
-        <v>0.2142075892855578</v>
+        <v>0.20790736607126048</v>
       </c>
       <c r="N77">
         <f t="shared" si="21"/>
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O77">
         <f t="shared" si="22"/>
@@ -13264,11 +13264,11 @@
       </c>
       <c r="M78">
         <f t="shared" si="20"/>
-        <v>0.19906947544663378</v>
+        <v>0.20930664062506849</v>
       </c>
       <c r="N78">
         <f t="shared" si="21"/>
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O78">
         <f t="shared" si="22"/>
@@ -13277,32 +13277,32 @@
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L79">
-        <v>0.25419921874998191</v>
+        <v>3.0203683035715915E-2</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="20"/>
-        <v>0.22573800223195978</v>
+        <v>0.23517717633897747</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="21"/>
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="22"/>
-        <v>5.2036830357209851E-2</v>
+        <v>3.0203683035715915E-2</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L80">
-        <v>0.26728515625036503</v>
+        <v>0.25552455357144599</v>
       </c>
       <c r="M80">
         <f t="shared" si="20"/>
-        <v>0.20031808035696158</v>
+        <v>0.23215680803540589</v>
       </c>
       <c r="N80">
         <f t="shared" si="21"/>
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O80">
         <f t="shared" si="22"/>
@@ -13311,15 +13311,15 @@
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L81">
-        <v>0.25461774553606198</v>
+        <v>0.26644810267893498</v>
       </c>
       <c r="M81">
         <f t="shared" si="20"/>
-        <v>0.20060965401763972</v>
+        <v>0.23309849330326099</v>
       </c>
       <c r="N81">
         <f t="shared" si="21"/>
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O81">
         <f t="shared" si="22"/>
@@ -13328,15 +13328,15 @@
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L82">
-        <v>0.25947265625034899</v>
+        <v>0.26583426339321903</v>
       </c>
       <c r="M82">
         <f t="shared" si="20"/>
-        <v>0.20112862723192615</v>
+        <v>0.2323842075889743</v>
       </c>
       <c r="N82">
         <f t="shared" si="21"/>
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O82">
         <f t="shared" si="22"/>
@@ -13345,15 +13345,15 @@
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L83">
-        <v>0.25862165178606</v>
+        <v>0.26431361607178905</v>
       </c>
       <c r="M83">
         <f t="shared" si="20"/>
-        <v>0.20146344866049856</v>
+        <v>0.23145228794611597</v>
       </c>
       <c r="N83">
         <f t="shared" si="21"/>
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O83">
         <f t="shared" si="22"/>
@@ -13362,15 +13362,15 @@
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L84">
-        <v>5.2036830357209851E-2</v>
+        <v>4.2061941964339988E-2</v>
       </c>
       <c r="M84">
         <f t="shared" si="20"/>
-        <v>0.20185407366049976</v>
+        <v>0.2319433593746878</v>
       </c>
       <c r="N84">
         <f t="shared" si="21"/>
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O84">
         <f t="shared" si="22"/>
@@ -13379,15 +13379,15 @@
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L85">
-        <v>0.25828683035748989</v>
+        <v>0.25382254464320009</v>
       </c>
       <c r="M85">
         <f t="shared" si="20"/>
-        <v>0.22472935267838876</v>
+        <v>0.25425781249971779</v>
       </c>
       <c r="N85">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O85">
         <f t="shared" si="22"/>
@@ -13396,15 +13396,15 @@
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L86">
-        <v>0.28016183035751996</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="M86">
         <f t="shared" si="20"/>
-        <v>0.22507533482124681</v>
+        <v>0.25558175223186275</v>
       </c>
       <c r="N86">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.44083426339345988</v>
       </c>
       <c r="O86">
         <f t="shared" si="22"/>
@@ -13413,15 +13413,15 @@
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L87">
-        <v>0.10601283482130008</v>
+        <v>0.27402343749858016</v>
       </c>
       <c r="M87">
         <f t="shared" si="20"/>
-        <v>0.22345703124981578</v>
+        <v>0.23896763392826878</v>
       </c>
       <c r="N87">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.27469308035752005</v>
       </c>
       <c r="O87">
         <f t="shared" si="22"/>
@@ -13430,15 +13430,15 @@
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L88">
-        <v>0.26668526785325986</v>
+        <v>0.25870535713908982</v>
       </c>
       <c r="M88">
         <f t="shared" si="20"/>
-        <v>0.23976841517818781</v>
+        <v>0.2395159040174768</v>
       </c>
       <c r="N88">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.27950613839066007</v>
       </c>
       <c r="O88">
         <f t="shared" si="22"/>
@@ -13451,11 +13451,11 @@
       </c>
       <c r="M89">
         <f t="shared" si="20"/>
-        <v>0.2393847656246228</v>
+        <v>0.24025669642817976</v>
       </c>
       <c r="N89">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.27950613839066007</v>
       </c>
       <c r="O89">
         <f t="shared" si="22"/>
@@ -13464,32 +13464,32 @@
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L90">
-        <v>0.27020089285714688</v>
+        <v>0.2649414062499969</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="20"/>
-        <v>0.26684988839208079</v>
+        <v>0.26657924107065373</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.27950613839066007</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="22"/>
-        <v>0.25980747767892598</v>
+        <v>0.256515066964636</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L91">
-        <v>0.25980747767892598</v>
+        <v>0.25930524553606799</v>
       </c>
       <c r="M91">
         <f t="shared" si="20"/>
-        <v>0.23982979910636609</v>
+        <v>0.24008510044565406</v>
       </c>
       <c r="N91">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.27950613839066007</v>
       </c>
       <c r="O91">
         <f t="shared" si="22"/>
@@ -13498,15 +13498,15 @@
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L92">
-        <v>0.26282087053607295</v>
+        <v>0.256515066964636</v>
       </c>
       <c r="M92">
         <f t="shared" si="20"/>
-        <v>0.24081473214204516</v>
+        <v>0.24104631696347606</v>
       </c>
       <c r="N92">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.27950613839066007</v>
       </c>
       <c r="O92">
         <f t="shared" si="22"/>
@@ -13515,15 +13515,15 @@
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L93">
-        <v>0.26252790178607199</v>
+        <v>0.26922433035750704</v>
       </c>
       <c r="M93">
         <f t="shared" si="20"/>
-        <v>0.24207170758847552</v>
+        <v>0.24294921874919284</v>
       </c>
       <c r="N93">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.27950613839066007</v>
       </c>
       <c r="O93">
         <f t="shared" si="22"/>
@@ -13532,15 +13532,15 @@
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L94">
-        <v>0.28078962053610002</v>
+        <v>0.26520647321463997</v>
       </c>
       <c r="M94">
         <f t="shared" si="20"/>
-        <v>0.24338448660633452</v>
+        <v>0.24515485490991057</v>
       </c>
       <c r="N94">
         <f t="shared" si="21"/>
-        <v>0.28078962053610002</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O94">
         <f t="shared" si="22"/>
@@ -13549,15 +13549,15 @@
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L95">
-        <v>0.26174665178607004</v>
+        <v>0.26706194196464983</v>
       </c>
       <c r="M95">
         <f t="shared" si="20"/>
-        <v>0.22092773437416069</v>
+        <v>0.2477176339277718</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>0.275655691964662</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O95">
         <f t="shared" si="22"/>
@@ -13566,15 +13566,15 @@
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L96">
-        <v>0.26397879464320995</v>
+        <v>0.27469308035752005</v>
       </c>
       <c r="M96">
         <f t="shared" si="20"/>
-        <v>0.22185407365987558</v>
+        <v>0.24865931919563078</v>
       </c>
       <c r="N96">
         <f t="shared" si="21"/>
-        <v>0.275655691964662</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O96">
         <f t="shared" si="22"/>
@@ -13583,15 +13583,15 @@
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L97">
-        <v>0.26912667410502022</v>
+        <v>0.27950613839066007</v>
       </c>
       <c r="M97">
         <f t="shared" si="20"/>
-        <v>0.2232045200884496</v>
+        <v>0.2321972656241798</v>
       </c>
       <c r="N97">
         <f t="shared" si="21"/>
-        <v>0.27748325892894998</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O97">
         <f t="shared" si="22"/>
@@ -13600,15 +13600,15 @@
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L98">
-        <v>0.26284877231760984</v>
+        <v>0.26611328124611999</v>
       </c>
       <c r="M98">
         <f t="shared" si="20"/>
-        <v>0.22309151785655557</v>
+        <v>0.23195033482086683</v>
       </c>
       <c r="N98">
         <f t="shared" si="21"/>
-        <v>0.27748325892894998</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O98">
         <f t="shared" si="22"/>
@@ -13617,15 +13617,15 @@
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L99">
-        <v>0.27465122767458006</v>
+        <v>0.26322544642473966</v>
       </c>
       <c r="M99">
         <f t="shared" si="20"/>
-        <v>0.22497767857125961</v>
+        <v>0.2325711495532948</v>
       </c>
       <c r="N99">
         <f t="shared" si="21"/>
-        <v>0.28171037946465027</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O99">
         <f t="shared" si="22"/>
@@ -13638,11 +13638,11 @@
       </c>
       <c r="M100">
         <f t="shared" si="20"/>
-        <v>0.2273632812497956</v>
+        <v>0.23388392857113377</v>
       </c>
       <c r="N100">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O100">
         <f t="shared" si="22"/>
@@ -13651,172 +13651,172 @@
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L101">
-        <v>0.2696568080357169</v>
+        <v>0.26891741071428787</v>
       </c>
       <c r="M101">
         <f t="shared" si="20"/>
-        <v>0.25565708705295459</v>
+        <v>0.26224051339214977</v>
       </c>
       <c r="N101">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O101">
         <f t="shared" si="22"/>
-        <v>5.6222098214361971E-2</v>
+        <v>0.11007254464300997</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L102">
-        <v>0.27539062500037603</v>
+        <v>0.27554408482180398</v>
       </c>
       <c r="M102">
         <f t="shared" si="20"/>
-        <v>0.25410156249931437</v>
+        <v>0.26149863591191225</v>
       </c>
       <c r="N102">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O102">
         <f t="shared" si="22"/>
-        <v>5.6222098214361971E-2</v>
+        <v>0.11007254464300997</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L103">
-        <v>0.275655691964662</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="M103">
         <f t="shared" si="20"/>
-        <v>0.25144042968668162</v>
+        <v>0.25974295479817577</v>
       </c>
       <c r="N103">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.29128069196468409</v>
       </c>
       <c r="O103">
         <f t="shared" si="22"/>
-        <v>5.6222098214361971E-2</v>
+        <v>0.11007254464300997</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L104">
-        <v>5.6222098214361971E-2</v>
+        <v>0.29083426339325213</v>
       </c>
       <c r="M104">
         <f t="shared" si="20"/>
-        <v>0.24798110650411301</v>
+        <v>0.25523756377438883</v>
       </c>
       <c r="N104">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.29083426339325213</v>
       </c>
       <c r="O104">
         <f t="shared" si="22"/>
-        <v>5.6222098214361971E-2</v>
+        <v>0.11007254464300997</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L105">
-        <v>0.27101004464321887</v>
+        <v>0.2764787946432401</v>
       </c>
       <c r="M105">
         <f t="shared" si="20"/>
-        <v>0.27994094121907148</v>
+        <v>0.2493047805045783</v>
       </c>
       <c r="N105">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.28356584821015973</v>
       </c>
       <c r="O105">
         <f t="shared" si="22"/>
-        <v>0.2679966517860799</v>
+        <v>0.11007254464300997</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L106">
-        <v>0.27748325892894998</v>
+        <v>0.11007254464300997</v>
       </c>
       <c r="M106">
         <f t="shared" si="20"/>
-        <v>0.28172712053424204</v>
+        <v>0.24386997767684596</v>
       </c>
       <c r="N106">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.28356584821015973</v>
       </c>
       <c r="O106">
         <f t="shared" si="22"/>
-        <v>0.2679966517860799</v>
+        <v>0.11007254464300997</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L107">
-        <v>0.2679966517860799</v>
+        <v>0.27703683035753013</v>
       </c>
       <c r="M107">
         <f t="shared" si="20"/>
-        <v>0.28278808593556504</v>
+        <v>0.27731933593530494</v>
       </c>
       <c r="N107">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.28356584821015973</v>
       </c>
       <c r="O107">
         <f t="shared" si="22"/>
-        <v>0.2679966517860799</v>
+        <v>0.27232142857040009</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L108">
-        <v>0.28171037946465027</v>
+        <v>0.27232142857040009</v>
       </c>
       <c r="M108">
         <f t="shared" si="20"/>
-        <v>0.28771856398539342</v>
+        <v>0.27741350446122987</v>
       </c>
       <c r="N108">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.28356584821015973</v>
       </c>
       <c r="O108">
         <f t="shared" si="22"/>
-        <v>0.28171037946465027</v>
+        <v>0.27232142857040009</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L109">
-        <v>0.29850725445994009</v>
+        <v>0.27635323660312983</v>
       </c>
       <c r="M109">
         <f t="shared" si="20"/>
-        <v>0.29072265624576499</v>
+        <v>0.27995954240664478</v>
       </c>
       <c r="N109">
         <f t="shared" si="21"/>
-        <v>0.29850725445994009</v>
+        <v>0.28356584821015973</v>
       </c>
       <c r="O109">
         <f t="shared" si="22"/>
-        <v>0.28293805803158989</v>
+        <v>0.27635323660312983</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L110">
-        <v>0.28293805803158989</v>
+        <v>0.28356584821015973</v>
       </c>
       <c r="M110">
         <f t="shared" si="20"/>
-        <v>0.28293805803158989</v>
+        <v>0.28356584821015973</v>
       </c>
       <c r="N110">
         <f t="shared" si="21"/>
-        <v>0.28293805803158989</v>
+        <v>0.28356584821015973</v>
       </c>
       <c r="O110">
         <f t="shared" si="22"/>
-        <v>0.28293805803158989</v>
+        <v>0.28356584821015973</v>
       </c>
     </row>
   </sheetData>
@@ -13832,7 +13832,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13856,10 +13856,10 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>0.24485599999999999</v>
+        <v>0.25256800000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>7522</v>
+        <v>8104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -13867,10 +13867,10 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.25444800000000001</v>
+        <v>0.25300800000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>8044</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -13878,10 +13878,10 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>0.23785400000000001</v>
+        <v>0.22973399999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>7744</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -13889,10 +13889,10 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.23433499999999999</v>
+        <v>0.25678000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>7860</v>
+        <v>7971</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -13900,10 +13900,10 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.26000699999999999</v>
+        <v>0.24174100000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>7872</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -13911,10 +13911,10 @@
         <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.23463000000000001</v>
+        <v>0.257969</v>
       </c>
       <c r="C7" s="1">
-        <v>7850</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -13922,10 +13922,10 @@
         <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>0.26029600000000003</v>
+        <v>0.25625599999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>7864</v>
+        <v>7988</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -13933,10 +13933,10 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.22573799999999999</v>
+        <v>0.235177</v>
       </c>
       <c r="C9" s="1">
-        <v>7251</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -13944,10 +13944,10 @@
         <v>0.45</v>
       </c>
       <c r="B10" s="1">
-        <v>0.26684999999999998</v>
+        <v>0.26657900000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>7670</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -13955,10 +13955,10 @@
         <v>0.49</v>
       </c>
       <c r="B11" s="1">
-        <v>0.25565700000000002</v>
+        <v>0.262241</v>
       </c>
       <c r="C11" s="1">
-        <v>7204</v>
+        <v>7024</v>
       </c>
     </row>
   </sheetData>
